--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_811.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_811.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32253-d84718-Reviews-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Vagabond-Inn-Costa-Mesa.h57251.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_811.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_811.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1286 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r591139597-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>32253</t>
+  </si>
+  <si>
+    <t>84718</t>
+  </si>
+  <si>
+    <t>591139597</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>I needed a hair dryer to blow dry my hair</t>
+  </si>
+  <si>
+    <t>The room was very budget friendly. There was a “Manager’s discount” deal through the website, which knocked off 5%. My room didn’t have all the amenities advertised: no hair dryer, microwave or mini-fridge. The coffee maker couldn’t make coffee. And the WiFi connectivity was terrible. The WiFi is better the closer you are to the lobby. There was also a phishing WiFi network using a similar name to the inn’s name; they should start warning customers when they check in.Other than that, it was a great location, especially with an In N’Out right out in front.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r589800575-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>589800575</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Do not stay here!!!</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel numerous times over the last two months and have had numerous issues and finally decided to never go back. I stayed in room 158 about a month ago and was bitten numerous times by bugs (I thought it was a fluke and did nothing about it). I stayed there again recently in room 255 and was attacked even worse. I brought it to management's attention and they were totally disinterested and unresponsive. This is not the only issue at the hotel, there is a steady stream of people loitering around the hotel and you constantly feel unsafe. I suggest finding a different property. This is one of the cheapest places in the area and you definitely get what you pay for. Just a suggestion but, I would spend the extra 10 bucks somewhere else...I know I will moving forward.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel numerous times over the last two months and have had numerous issues and finally decided to never go back. I stayed in room 158 about a month ago and was bitten numerous times by bugs (I thought it was a fluke and did nothing about it). I stayed there again recently in room 255 and was attacked even worse. I brought it to management's attention and they were totally disinterested and unresponsive. This is not the only issue at the hotel, there is a steady stream of people loitering around the hotel and you constantly feel unsafe. I suggest finding a different property. This is one of the cheapest places in the area and you definitely get what you pay for. Just a suggestion but, I would spend the extra 10 bucks somewhere else...I know I will moving forward.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r586255209-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>586255209</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Our Go-To Place Whenever We Vist Disneyland</t>
+  </si>
+  <si>
+    <t>Our whole family loves this place. Close enough to Disneyland to make it a quick trip to the Magic Kingdom, but far enough away to avoid the crazy high hotel prices closer to Disneyland. And located right on Interstate 405, which the locals call "the 405".  :-)  The staff is great with families and kids and our kids love the free breakfast in the hotel lobby and the swimming pool. And by the time we return from Disneyland at night, Martha and her housekeeping posse always have our room looking great. The front desk led by Sharmin is always a pleasure to deal with. What we like most about this place is that we see the same staff members every time we visit which makes it a bit of a home away from home, especially for the kids. Btw, there's an awesome In and Out burger joint right next door. This place is a gem. Thanks for the great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Our whole family loves this place. Close enough to Disneyland to make it a quick trip to the Magic Kingdom, but far enough away to avoid the crazy high hotel prices closer to Disneyland. And located right on Interstate 405, which the locals call "the 405".  :-)  The staff is great with families and kids and our kids love the free breakfast in the hotel lobby and the swimming pool. And by the time we return from Disneyland at night, Martha and her housekeeping posse always have our room looking great. The front desk led by Sharmin is always a pleasure to deal with. What we like most about this place is that we see the same staff members every time we visit which makes it a bit of a home away from home, especially for the kids. Btw, there's an awesome In and Out burger joint right next door. This place is a gem. Thanks for the great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r566517091-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>566517091</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Very sketchy room neighbors, poor quality room</t>
+  </si>
+  <si>
+    <t>I chose this Inn because it's located near where I had a Cirque show ticket at the OC Fairground. As a solo female traveler, I was a bit concerned when assigned a room that was the farthest possible from the office. The room itself was defaced with pencil scribbles (done by a child) on the walls and doors and had, obviously, never been cleaned off. The neighboring rooms had sketchy people hanging around their open doors. Multiple people from the street came up on bicycles to repeatedly do deals.There was no working deadbolt on my door - only a slide latch. Someone tried to pop my door open the next morning while I was in the bathroom - the evidence being the popped slide latch.  Travelers beware!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I chose this Inn because it's located near where I had a Cirque show ticket at the OC Fairground. As a solo female traveler, I was a bit concerned when assigned a room that was the farthest possible from the office. The room itself was defaced with pencil scribbles (done by a child) on the walls and doors and had, obviously, never been cleaned off. The neighboring rooms had sketchy people hanging around their open doors. Multiple people from the street came up on bicycles to repeatedly do deals.There was no working deadbolt on my door - only a slide latch. Someone tried to pop my door open the next morning while I was in the bathroom - the evidence being the popped slide latch.  Travelers beware!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r562585300-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>562585300</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Wrong room, sketchy guest</t>
+  </si>
+  <si>
+    <t>My only issue is that the front desk clerk described the room as being somewhere other than when it was, and just generally feeling on edge and in danger here. Literally just more lights, and more safety measures, NOT A ARMED SECURITY GAURD though.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r558928912-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>558928912</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Return visit after 35 years</t>
+  </si>
+  <si>
+    <t>It's been quite a while since I last stayed at this motel in the Vagabond chain.  I think about 35 years or so since last here and I was disappointed when I first saw the external view of this inn, which I also found hard to find because it's now hidden behind a gas station and the Inn &amp; Out burger place.  The outdoor Vagabond signage will have to be enlarged
+The orange colour external walls need replacing with a more lighter colour.  I'm not a fan of dark orange on dark brown. 
+The first room I was assigned to, was on the far west side of the property, the key card would have worked ok had the door handle not have been broken, the next room was in same area but this time worked ok.  I found the present key card door system a bit tricky as had to stoop to find the slot, this door had seen better days and is showing its age.   The whole property 35 years ago was in a better condition than today.  
+The room I had was a king size bed in which was comfortable and had plenty of pillows and blankets.  The room decorations again were of dark colours green and fawn which are ok.  The air con, shower, and hand basin made an awful screeching noise when turned on.  No plug supplied for hand basin.  The smoke detector was completely missing....It's been quite a while since I last stayed at this motel in the Vagabond chain.  I think about 35 years or so since last here and I was disappointed when I first saw the external view of this inn, which I also found hard to find because it's now hidden behind a gas station and the Inn &amp; Out burger place.  The outdoor Vagabond signage will have to be enlargedThe orange colour external walls need replacing with a more lighter colour.  I'm not a fan of dark orange on dark brown. The first room I was assigned to, was on the far west side of the property, the key card would have worked ok had the door handle not have been broken, the next room was in same area but this time worked ok.  I found the present key card door system a bit tricky as had to stoop to find the slot, this door had seen better days and is showing its age.   The whole property 35 years ago was in a better condition than today.  The room I had was a king size bed in which was comfortable and had plenty of pillows and blankets.  The room decorations again were of dark colours green and fawn which are ok.  The air con, shower, and hand basin made an awful screeching noise when turned on.  No plug supplied for hand basin.  The smoke detector was completely missing.  The electrical switches for lights were slide controlled and looked very ancient.  My neighbours plumbing also noisey when in action.  No TV remote either.  Room furniture was ok although in need of refreshing.  TV worked ok although picture size was smaller than the now standard 32".  The house keeping staff are very friendly, despite my English accent they understood me. The receptionist lady who dealt with me was very attentive and efficient if a little stressed and always on duty, reckon she should have some help on front desk especially around check out/in times.  Her front desk computer kept crashing on her.  I never saw manager, although if I did no one had name badges on or any particular standard uniform so who knows I might have. The property seems safe and secure, although at times in mid mornings &amp; early evenings there are some single maybe homeless men who seem to wander the property corridors.  Parking permits were issued for the cars but never saw any security officials checking or walking the perimeters. This property is need of some TLC. The room rates are average although a new motel 6 just across the street is no doubt causing competition. I would like to stay at the Vagabond again though and will try to do so within a lesser time slot to.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's been quite a while since I last stayed at this motel in the Vagabond chain.  I think about 35 years or so since last here and I was disappointed when I first saw the external view of this inn, which I also found hard to find because it's now hidden behind a gas station and the Inn &amp; Out burger place.  The outdoor Vagabond signage will have to be enlarged
+The orange colour external walls need replacing with a more lighter colour.  I'm not a fan of dark orange on dark brown. 
+The first room I was assigned to, was on the far west side of the property, the key card would have worked ok had the door handle not have been broken, the next room was in same area but this time worked ok.  I found the present key card door system a bit tricky as had to stoop to find the slot, this door had seen better days and is showing its age.   The whole property 35 years ago was in a better condition than today.  
+The room I had was a king size bed in which was comfortable and had plenty of pillows and blankets.  The room decorations again were of dark colours green and fawn which are ok.  The air con, shower, and hand basin made an awful screeching noise when turned on.  No plug supplied for hand basin.  The smoke detector was completely missing....It's been quite a while since I last stayed at this motel in the Vagabond chain.  I think about 35 years or so since last here and I was disappointed when I first saw the external view of this inn, which I also found hard to find because it's now hidden behind a gas station and the Inn &amp; Out burger place.  The outdoor Vagabond signage will have to be enlargedThe orange colour external walls need replacing with a more lighter colour.  I'm not a fan of dark orange on dark brown. The first room I was assigned to, was on the far west side of the property, the key card would have worked ok had the door handle not have been broken, the next room was in same area but this time worked ok.  I found the present key card door system a bit tricky as had to stoop to find the slot, this door had seen better days and is showing its age.   The whole property 35 years ago was in a better condition than today.  The room I had was a king size bed in which was comfortable and had plenty of pillows and blankets.  The room decorations again were of dark colours green and fawn which are ok.  The air con, shower, and hand basin made an awful screeching noise when turned on.  No plug supplied for hand basin.  The smoke detector was completely missing.  The electrical switches for lights were slide controlled and looked very ancient.  My neighbours plumbing also noisey when in action.  No TV remote either.  Room furniture was ok although in need of refreshing.  TV worked ok although picture size was smaller than the now standard 32".  The house keeping staff are very friendly, despite my English accent they understood me. The receptionist lady who dealt with me was very attentive and efficient if a little stressed and always on duty, reckon she should have some help on front desk especially around check out/in times.  Her front desk computer kept crashing on her.  I never saw manager, although if I did no one had name badges on or any particular standard uniform so who knows I might have. The property seems safe and secure, although at times in mid mornings &amp; early evenings there are some single maybe homeless men who seem to wander the property corridors.  Parking permits were issued for the cars but never saw any security officials checking or walking the perimeters. This property is need of some TLC. The room rates are average although a new motel 6 just across the street is no doubt causing competition. I would like to stay at the Vagabond again though and will try to do so within a lesser time slot to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r554504407-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>554504407</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Wonderful staff!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really enjoy staying on the second floor.  The rooms are very clean and safe.  The location of the hotel is really accommodating to many activities within the Costa Mesa area. It’s also close to the highway for easy access to bigger cities like Los Angeles or San Diego. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r552323178-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>552323178</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Not staying here again</t>
+  </si>
+  <si>
+    <t>I'm not sure why there are so many positive reviews for this hotel.  Something looks fishy.Pros:1) right off the 4052) free parking3) free breakfast4) free wifiCons:1) The rooms are really old, and are in definite need of a remodel ASAP.2) There is a really bad smoke smell in the room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r542878423-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>542878423</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>The staff were courteous, attentive and professional. The room was comfortable and clean. They Inn is in a great location with an abundance of restaurants, shopping and the beach nearby. I definitely will rent here again.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r492990249-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>492990249</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Decent for this price</t>
+  </si>
+  <si>
+    <t>It was my first spot to sleep in LA, was ok for that price. The cleaning could really improve.Also the service was kinda slow, but I was grateful they kept our bags a little while, until we changed locations.Also located in a good zone, lots of things to do nearby.Yea and the breakfast should really really improve!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r469928039-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>469928039</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>Place was always packed. Seemed like there was always a line every time I needed to go to the main office. It's an older spot, no frills. The place obviously needs a makeover, but the location was nice, and it is affordable for the area.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r445895894-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>445895894</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Affordable And By The Freeway</t>
+  </si>
+  <si>
+    <t>I grabbed a room at this hotel last minute. The check in was easy enough and also totally void of conversation. I was given a room on the back side of the hotel and upstairs. The room was basic and seemed clean. The hotel also shows noticeable wear and tear. I had a door that had obviously patched and painted over. The bathroom was also painted noticeably "around" the toilet. The paint color behind it was different. It's right off the freeway and next to a In &amp; Out. The morning breakfast is basically coffee and a roll or cereal.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r416271776-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>416271776</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>We had stayed at this Vagabond Inn several years ago and had a nice visit.This time the good thing about this place is the Pool was very nice and the Front Desk Clerk was personable.  The bed was uncomfortable. When part of the sheet came off we felt ill seeing the stains on the mattress without a mattress topper. Breakfast was below mediocre at best.We will never stay there again.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r415389953-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>415389953</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>two night Costa Mesa stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff friendly, outside clean, room clean but in real need of some maintenance / remodeling. Beds old and uncomfortable, bathroom facilities showing age as well, stopper missing from sink, and signs of rust in the sink as well, TV very small. For the price (about half that of La Quinta) it served the need. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r412924226-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>412924226</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>We won't be going back</t>
+  </si>
+  <si>
+    <t>My daughter and I were traveling with other teenage girls and a few other adults to a nearby horse show. There was a room not far from ours that had several men staying in the room. There was a smell of marijuana coming from the room and they had their boxer shorts hanging on the rail near their door. We arrived late and had to walk by several times to unload our vehicle. Their door was wide open and it appeared there were about 5-6 men staying in a room with two queen beds. I called for a roll away bed and was told I needed to go back down to the office to present my credit card, even though I had checked in with my card only a few hours earlier. When I walked to the office, it appeared that some people may be taking long term or permanent residence at the hotel. I noticed activity in the parking lot that looked as if there were drug deals taking place. When I reached the office and expressed my concern, I was told the hotel had security. That was music to my ears and I requested a security guard to walk me back to my room. Then I was told that security was only present on the weekends, and this was a week day! Early the next morning (about 6:45am) we walked our group of girls past the room with...My daughter and I were traveling with other teenage girls and a few other adults to a nearby horse show. There was a room not far from ours that had several men staying in the room. There was a smell of marijuana coming from the room and they had their boxer shorts hanging on the rail near their door. We arrived late and had to walk by several times to unload our vehicle. Their door was wide open and it appeared there were about 5-6 men staying in a room with two queen beds. I called for a roll away bed and was told I needed to go back down to the office to present my credit card, even though I had checked in with my card only a few hours earlier. When I walked to the office, it appeared that some people may be taking long term or permanent residence at the hotel. I noticed activity in the parking lot that looked as if there were drug deals taking place. When I reached the office and expressed my concern, I was told the hotel had security. That was music to my ears and I requested a security guard to walk me back to my room. Then I was told that security was only present on the weekends, and this was a week day! Early the next morning (about 6:45am) we walked our group of girls past the room with all of the men to find their door was still open and there were many men laying around sleeping in their underwear. We headed to our cars to go to the horse show and found a man drinking beer in the parking lot! Needless to say we packed the cars and checked out. The man at the front desk was very apologetic and was very good about refunding me for the nights we had not stayed. The room was clean and everything in our room was in working order. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>My daughter and I were traveling with other teenage girls and a few other adults to a nearby horse show. There was a room not far from ours that had several men staying in the room. There was a smell of marijuana coming from the room and they had their boxer shorts hanging on the rail near their door. We arrived late and had to walk by several times to unload our vehicle. Their door was wide open and it appeared there were about 5-6 men staying in a room with two queen beds. I called for a roll away bed and was told I needed to go back down to the office to present my credit card, even though I had checked in with my card only a few hours earlier. When I walked to the office, it appeared that some people may be taking long term or permanent residence at the hotel. I noticed activity in the parking lot that looked as if there were drug deals taking place. When I reached the office and expressed my concern, I was told the hotel had security. That was music to my ears and I requested a security guard to walk me back to my room. Then I was told that security was only present on the weekends, and this was a week day! Early the next morning (about 6:45am) we walked our group of girls past the room with...My daughter and I were traveling with other teenage girls and a few other adults to a nearby horse show. There was a room not far from ours that had several men staying in the room. There was a smell of marijuana coming from the room and they had their boxer shorts hanging on the rail near their door. We arrived late and had to walk by several times to unload our vehicle. Their door was wide open and it appeared there were about 5-6 men staying in a room with two queen beds. I called for a roll away bed and was told I needed to go back down to the office to present my credit card, even though I had checked in with my card only a few hours earlier. When I walked to the office, it appeared that some people may be taking long term or permanent residence at the hotel. I noticed activity in the parking lot that looked as if there were drug deals taking place. When I reached the office and expressed my concern, I was told the hotel had security. That was music to my ears and I requested a security guard to walk me back to my room. Then I was told that security was only present on the weekends, and this was a week day! Early the next morning (about 6:45am) we walked our group of girls past the room with all of the men to find their door was still open and there were many men laying around sleeping in their underwear. We headed to our cars to go to the horse show and found a man drinking beer in the parking lot! Needless to say we packed the cars and checked out. The man at the front desk was very apologetic and was very good about refunding me for the nights we had not stayed. The room was clean and everything in our room was in working order. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r412800770-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>412800770</t>
+  </si>
+  <si>
+    <t>Learn to take pride in your property!</t>
+  </si>
+  <si>
+    <t>Spend $20 and put up new drapes    Put blankets on the bed that don't have cigarette burns and tears in them.   Try to take a little pride in your property that was absolutely filthy and disgusting.   I stay at Hilton hotels for work..   For personal travel I've stated at many budget hotels and I've never seen anything so dirty.   This propert makes Motel 6 look like a luxury hotel.  Quite frankly I'd be embarrassed to ask for a review.   Maybe management needs to take a tour of their properties</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r412776650-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>412776650</t>
+  </si>
+  <si>
+    <t>Costa Mesa Bagabond</t>
+  </si>
+  <si>
+    <t>Would not stay here again.  Beds were extremely uncomfortable and mattress creaked every time we moved.  Changed rooms after we checked in as room was not very well cleaned and Could not access wifi.  Second room had no refrigerator and safe was broken.  Had to request a hair dryer.  Staff was accommodating and it was quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r412771274-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>412771274</t>
+  </si>
+  <si>
+    <t>bugs everywhere</t>
+  </si>
+  <si>
+    <t>I was first given a smoking room, when I walked in I was immediately greated by cockroaches and nats. there was mold on the walls &amp; the blanket on the bed had holes from cigarettes in it. when I brought this to the employees attention he simply said "you asked for a smoking room, correct?" making it clear he did not want to help. I was transferred to a non-smoking room that was cleaner than the first but I do NOT recommend staying at this hotel. left covered in bug bites still.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r400860410-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>400860410</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Cockroaches</t>
+  </si>
+  <si>
+    <t>Pulled off the 405 in need of a hotel for the night. I guess we should have taken more notice of the unkempt reception area. It should have prepared us for the disappointment when we got to our room. Grubby, is a fair description. The furniture, electrics, bathroom all need updating. Really didn't want to walk barefoot on the carpet.'It's only for one night, we're tired, it'll do.' - we hadn't seen the worst yet!As we settled for the night, our first unwelcome visitor ran down the wall. Cockroaches! We spent a very unsettled night with the light on, in hope of keeping away the roaches. In the morning the receptionist just shrugged off our complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pulled off the 405 in need of a hotel for the night. I guess we should have taken more notice of the unkempt reception area. It should have prepared us for the disappointment when we got to our room. Grubby, is a fair description. The furniture, electrics, bathroom all need updating. Really didn't want to walk barefoot on the carpet.'It's only for one night, we're tired, it'll do.' - we hadn't seen the worst yet!As we settled for the night, our first unwelcome visitor ran down the wall. Cockroaches! We spent a very unsettled night with the light on, in hope of keeping away the roaches. In the morning the receptionist just shrugged off our complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r398450066-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>398450066</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Near the beach</t>
+  </si>
+  <si>
+    <t>Clean pool... but homeless was bathing near the jacuzzi. Room was clean. Staff was alright. Breakfast was pretty good. Lots of fresh fruit. Air conditioner worked. No big issues. Close to the freeway. Right next door to IN N OUT.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r395956729-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>395956729</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Great vacation</t>
+  </si>
+  <si>
+    <t>Hotel and staff were great, polite. Will stAy here every time from now on. Room was very clean, pool was clean met some great people here. Great hotel if you have pets. Very accessible to beaches and great shopping and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r382045850-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>382045850</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>i suppose i got what I paid for...</t>
+  </si>
+  <si>
+    <t>it was cheap and that is where the positives end. The room smelled really bad like cigarettes. Our room was not upgrated, yet our friends room that was right next door was and we paid the same price. We left for the day and came back in the evening and our clean sheets were still very damp on the bed. So gross.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r373835134-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>373835134</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Not quite adequit</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a one night stay thinking it would be a little step up from Motel 6.. I think I would have rated the Motel 6 higher.  The Vagabond did have a breakfast which M-6 did not but the "non smoking" room wreaked of cigarette smoke and the bed was classic rock hard.  The TV worked and it was only for a night.  I would stay at M-6 next time.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r354553262-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>354553262</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Shortened my lifespan by a good 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 min check in process where I hear another guest complain that there is no cord connected to the room telephone. My room stinks of smoke.  Furniture is badly stained. Sheets have light stains. Carpet is sticky. Snot on bathroom wall. Badly painted bathroom door frame. The strong smell of mold that was initially masked by the smoke smell becomes overpowering when trying to sleep. Staff were friendly and trustworthy, there was little noise to wake me, the room seems to be free of bugs and they do have a pool which I did not try. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r298080975-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>298080975</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>My family (Mom and Sister, nieces and nephew) stayed here - 8/8/15. Bed bugs bit my niece on her arms, waste and shoulders. So much that there was blood on the sheets (see pics).  When brought to the housekeeping lady's attention, she did not seem to concerned. Basically said talk to the front desk. Management extended a 10% discount for the hassle. Police cruised parking lot all night. Other occupied rooms had Marijuana smoke exiting them. Activity at this hotel was less than family oriented.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r298044989-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>298044989</t>
+  </si>
+  <si>
+    <t>PET PEE!</t>
+  </si>
+  <si>
+    <t>AVOID! THE WORST!  Terrible, terrible terrible!  Room reeked of dog and cat urine.  The carpet was disgusting.  The bathroom was disgusting, moldy.  You can find a better room in the slums of TJ.  The health department should close this dump down.  How anyone can give this hole a decent review baffles me.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r294488076-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>294488076</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>aging is tough</t>
+  </si>
+  <si>
+    <t>This motel has deteriorated and is no longer a place where our family will stay.  Between nonfunctioning lights, dirty carpets, poor cleaning, noisy neighbors and traffic our stay of two nights was too long.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r272893891-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>272893891</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Mediocre stay</t>
+  </si>
+  <si>
+    <t>The room was spacious we got a two queen bed room. The carpet was stain. The bathroom was worned out. The chair in the room was broken. Housekeeping wasnt done properly, even though the housekeepers were very nice, the carpet wasnt clean. They were pills on the floors and chips as for other things, luckily my infant doesnt crawl neither would i let her with that dirty carpet. The room even after cleaning smelled like cigarrete even though they are non smoking rooms. I was charged $1.00 a day for a safe thats in the room that i never used. Overall, i dont recommend this place to families.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r261383399-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>261383399</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Not as bad as I thought</t>
+  </si>
+  <si>
+    <t>I read a bunch of the reviews and was VERY apprehensive until I called every hotel and realized we had vacationed during Spring Break and that everything was booked.  Ok...So this isn't The Ritz....It is a budget motel....We saw two small bugs that were ***NOT*** roaches, ticks or bedbugs...rather just a couple that buzz around outside lights.  It was old and needs refurbishing but it wasn't filthy and I buy and use lysol before getting too comfortable.  If you are on a budget...This place is fine...The staff was really nice.  No issues...we stayed in 261 by the road, and though it could be a bit loud....It was alright.  Would stay again..:)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I read a bunch of the reviews and was VERY apprehensive until I called every hotel and realized we had vacationed during Spring Break and that everything was booked.  Ok...So this isn't The Ritz....It is a budget motel....We saw two small bugs that were ***NOT*** roaches, ticks or bedbugs...rather just a couple that buzz around outside lights.  It was old and needs refurbishing but it wasn't filthy and I buy and use lysol before getting too comfortable.  If you are on a budget...This place is fine...The staff was really nice.  No issues...we stayed in 261 by the road, and though it could be a bit loud....It was alright.  Would stay again..:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r259100174-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>259100174</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Our non smoking room smelled heavily like cigarettes..we got something to eat and brought it back to the room and as we sat down to eat OUR ROOM HAD ROACHES..we opened the dresser only to find even more ROACHES INSIDE ... THIS PLACE WAS SUCH A FAIL..WOULD NOT RECOMMEND STAYING HERE</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r236797959-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>236797959</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>I stayed because they are pet friendly and ended up staying elsewhere the next night my room was absolutely disgusting! Filthy from top to bottom. I got out of the shower and was drying my hair in front of the sink and my feet were covered with black hair from the carpet.  Apparently they don't vacuum.  Mold on ceiling in bathroom. Han been painted in years. Just plain nasty. Spider webs all around front door and alot of creepy people that seem to be living there. Also I made a reservation online at 7 pm and they called me at 10:30 the same night to see if I was still coming. Why??? Never again!!! Rude on telephone when I called to early in the day to make reservation, she said we don't take reservations.  Ahhhhhh, so I just hope u have a room when I get there??? She also hung up on me without NY sort of a goodbye.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I stayed because they are pet friendly and ended up staying elsewhere the next night my room was absolutely disgusting! Filthy from top to bottom. I got out of the shower and was drying my hair in front of the sink and my feet were covered with black hair from the carpet.  Apparently they don't vacuum.  Mold on ceiling in bathroom. Han been painted in years. Just plain nasty. Spider webs all around front door and alot of creepy people that seem to be living there. Also I made a reservation online at 7 pm and they called me at 10:30 the same night to see if I was still coming. Why??? Never again!!! Rude on telephone when I called to early in the day to make reservation, she said we don't take reservations.  Ahhhhhh, so I just hope u have a room when I get there??? She also hung up on me without NY sort of a goodbye.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r232944790-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>232944790</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Dirty and shady</t>
+  </si>
+  <si>
+    <t>We needed somewhere near the airport and this was the cheapest on the night, $60, but even that felt like way too much. On arrival the hotel looked nice, but the experience went downhill quickly after that. The man working at late night reception acted if he couldn't care less, he answered the telephone whilst you were talking to him and he took an age to actually assign rooms to people. Whilst we were in there, a guy checked out with his woman of the night wandering off in the distance. The desk assistant gave us the furthest room away, next to the freeway. Whilst walking down to the room at 11pm, transients were smoking something with hotel guests on the porch and youngish kids were running around the car park area unsupervised. The room itself was so awful, the electrical socket hung off the wall dangerously. I found out when I tried to use it and it sparked. When I called reception I was told it was fine to use. The mattress was actually falling out underneath the bed and was as hard as rocks. The TV was crackly and a 90s CRT. You got free wifi, but for one device only. In the morning the free breakfast of snail raisins and polystyrene coffee was greeted to me by a homeless man hanging out indoors. But, what made me laugh in all of this, was that the cleaner had...We needed somewhere near the airport and this was the cheapest on the night, $60, but even that felt like way too much. On arrival the hotel looked nice, but the experience went downhill quickly after that. The man working at late night reception acted if he couldn't care less, he answered the telephone whilst you were talking to him and he took an age to actually assign rooms to people. Whilst we were in there, a guy checked out with his woman of the night wandering off in the distance. The desk assistant gave us the furthest room away, next to the freeway. Whilst walking down to the room at 11pm, transients were smoking something with hotel guests on the porch and youngish kids were running around the car park area unsupervised. The room itself was so awful, the electrical socket hung off the wall dangerously. I found out when I tried to use it and it sparked. When I called reception I was told it was fine to use. The mattress was actually falling out underneath the bed and was as hard as rocks. The TV was crackly and a 90s CRT. You got free wifi, but for one device only. In the morning the free breakfast of snail raisins and polystyrene coffee was greeted to me by a homeless man hanging out indoors. But, what made me laugh in all of this, was that the cleaner had arranged the toilet roll into a napkin flower. I mean that's some kind of cynical joke, right...MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed somewhere near the airport and this was the cheapest on the night, $60, but even that felt like way too much. On arrival the hotel looked nice, but the experience went downhill quickly after that. The man working at late night reception acted if he couldn't care less, he answered the telephone whilst you were talking to him and he took an age to actually assign rooms to people. Whilst we were in there, a guy checked out with his woman of the night wandering off in the distance. The desk assistant gave us the furthest room away, next to the freeway. Whilst walking down to the room at 11pm, transients were smoking something with hotel guests on the porch and youngish kids were running around the car park area unsupervised. The room itself was so awful, the electrical socket hung off the wall dangerously. I found out when I tried to use it and it sparked. When I called reception I was told it was fine to use. The mattress was actually falling out underneath the bed and was as hard as rocks. The TV was crackly and a 90s CRT. You got free wifi, but for one device only. In the morning the free breakfast of snail raisins and polystyrene coffee was greeted to me by a homeless man hanging out indoors. But, what made me laugh in all of this, was that the cleaner had...We needed somewhere near the airport and this was the cheapest on the night, $60, but even that felt like way too much. On arrival the hotel looked nice, but the experience went downhill quickly after that. The man working at late night reception acted if he couldn't care less, he answered the telephone whilst you were talking to him and he took an age to actually assign rooms to people. Whilst we were in there, a guy checked out with his woman of the night wandering off in the distance. The desk assistant gave us the furthest room away, next to the freeway. Whilst walking down to the room at 11pm, transients were smoking something with hotel guests on the porch and youngish kids were running around the car park area unsupervised. The room itself was so awful, the electrical socket hung off the wall dangerously. I found out when I tried to use it and it sparked. When I called reception I was told it was fine to use. The mattress was actually falling out underneath the bed and was as hard as rocks. The TV was crackly and a 90s CRT. You got free wifi, but for one device only. In the morning the free breakfast of snail raisins and polystyrene coffee was greeted to me by a homeless man hanging out indoors. But, what made me laugh in all of this, was that the cleaner had arranged the toilet roll into a napkin flower. I mean that's some kind of cynical joke, right...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r222668204-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>222668204</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>AVOID this nasty dirty place</t>
+  </si>
+  <si>
+    <t>We had booked for 3 nights but checked out after one and that was one too many !!  The carpet was filthy my feet got black just walking from bathroom- the curtains were falling down - the beds must be 20 years old - foul odor from old dirty carpet- on an on Could not get out of there fast enough !! Yuk</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r217056159-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>217056159</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Stayed for a month!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the Vagabond Inn. It's centrally located to highway, restaurants and the state fair!! Great management team and the service is great. Rooms are also clean too!  I would recommend the Vagabond Inn to my family and friends!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r215370202-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>215370202</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>The Hepatitis Inn</t>
+  </si>
+  <si>
+    <t>To call this Place a flea bag is an insult to fleas and bags everywhere
+Judging by the caution tape and the blood stains we might as well have been staying at the Bates Motel... Actually it might have been cleaner. 
+We checked into two pre-paid rooms booked through Orbitz, at check-in I was immediately charged an additional $20 room key deposit and a $30 room “upgrade” because even though I had paid for a room with two queen beds they tried giving me a room with only one. 
+If I wanted two I had to pay more. Nice…
+Upon entering the first room (which was unlocked and standing wide open) the smell of mold and cigarettes permeated everything within its confines (even though this was a non-smoking room). There were crumbs, unidentifiable stains and hair on the sheets and a wad of pubic hair was on the bathroom floor. I walked down the hall to the “upgraded” room and while it smelled better there were two bright red blood stains on the floor in the bathroom. 
+I went back to the office to complain and while waiting for the front desk clerk I was propositioned by what I can only guess was one of the “room by the hour” customers. 
+Ugh… Although, maybe his room was cleaner
+The front desk extortionist actually had the nerve to roll his eyes at me when I said I needed housekeeping to come...To call this Place a flea bag is an insult to fleas and bags everywhereJudging by the caution tape and the blood stains we might as well have been staying at the Bates Motel... Actually it might have been cleaner. We checked into two pre-paid rooms booked through Orbitz, at check-in I was immediately charged an additional $20 room key deposit and a $30 room “upgrade” because even though I had paid for a room with two queen beds they tried giving me a room with only one. If I wanted two I had to pay more. Nice… Upon entering the first room (which was unlocked and standing wide open) the smell of mold and cigarettes permeated everything within its confines (even though this was a non-smoking room). There were crumbs, unidentifiable stains and hair on the sheets and a wad of pubic hair was on the bathroom floor. I walked down the hall to the “upgraded” room and while it smelled better there were two bright red blood stains on the floor in the bathroom. I went back to the office to complain and while waiting for the front desk clerk I was propositioned by what I can only guess was one of the “room by the hour” customers. Ugh… Although, maybe his room was cleanerThe front desk extortionist actually had the nerve to roll his eyes at me when I said I needed housekeeping to come up to our rooms and finish cleaning them.  Ten minutes later I’m confronted by this angry lady demanding to see what was dirty. She then spent the next five minutes arguing with me that the room had been cleaned and refusing to re-clean it. After repeatedly pointing out the sheet stains and hair she stomped out of the room, grabbed a bottom sheet off of the housekeeping cart, ripped the bed apart and put ONE clean sheet onto ONE of the beds. Then she told me to leave the door open because of the smell. Ummm… So you’re acknowledging that the room smells horrible but you want me to leave the door open with all my stuff in it. Seriously?  I asked her to go clean the blood up off the floor in the Hepatitis C Suite and instead she turned around and walked away, never bothering to even go look at the other room. So we threw a towel over the stains and made sure to wear shoes at all times. Since these were pre-paid rooms we really had no choice but to stay there. Luckily I had brought along blankets in the car which we used to sleep on. The next day after we returned from an outing the beds were made but the pubic hair was still on the bathroom floor and nobody ever cleaned the blood up off the floor in the other room. They picked the towel up but left the blood… Can you give a hotel a negative star count? If yes then this place gets a minus 10.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>To call this Place a flea bag is an insult to fleas and bags everywhere
+Judging by the caution tape and the blood stains we might as well have been staying at the Bates Motel... Actually it might have been cleaner. 
+We checked into two pre-paid rooms booked through Orbitz, at check-in I was immediately charged an additional $20 room key deposit and a $30 room “upgrade” because even though I had paid for a room with two queen beds they tried giving me a room with only one. 
+If I wanted two I had to pay more. Nice…
+Upon entering the first room (which was unlocked and standing wide open) the smell of mold and cigarettes permeated everything within its confines (even though this was a non-smoking room). There were crumbs, unidentifiable stains and hair on the sheets and a wad of pubic hair was on the bathroom floor. I walked down the hall to the “upgraded” room and while it smelled better there were two bright red blood stains on the floor in the bathroom. 
+I went back to the office to complain and while waiting for the front desk clerk I was propositioned by what I can only guess was one of the “room by the hour” customers. 
+Ugh… Although, maybe his room was cleaner
+The front desk extortionist actually had the nerve to roll his eyes at me when I said I needed housekeeping to come...To call this Place a flea bag is an insult to fleas and bags everywhereJudging by the caution tape and the blood stains we might as well have been staying at the Bates Motel... Actually it might have been cleaner. We checked into two pre-paid rooms booked through Orbitz, at check-in I was immediately charged an additional $20 room key deposit and a $30 room “upgrade” because even though I had paid for a room with two queen beds they tried giving me a room with only one. If I wanted two I had to pay more. Nice… Upon entering the first room (which was unlocked and standing wide open) the smell of mold and cigarettes permeated everything within its confines (even though this was a non-smoking room). There were crumbs, unidentifiable stains and hair on the sheets and a wad of pubic hair was on the bathroom floor. I walked down the hall to the “upgraded” room and while it smelled better there were two bright red blood stains on the floor in the bathroom. I went back to the office to complain and while waiting for the front desk clerk I was propositioned by what I can only guess was one of the “room by the hour” customers. Ugh… Although, maybe his room was cleanerThe front desk extortionist actually had the nerve to roll his eyes at me when I said I needed housekeeping to come up to our rooms and finish cleaning them.  Ten minutes later I’m confronted by this angry lady demanding to see what was dirty. She then spent the next five minutes arguing with me that the room had been cleaned and refusing to re-clean it. After repeatedly pointing out the sheet stains and hair she stomped out of the room, grabbed a bottom sheet off of the housekeeping cart, ripped the bed apart and put ONE clean sheet onto ONE of the beds. Then she told me to leave the door open because of the smell. Ummm… So you’re acknowledging that the room smells horrible but you want me to leave the door open with all my stuff in it. Seriously?  I asked her to go clean the blood up off the floor in the Hepatitis C Suite and instead she turned around and walked away, never bothering to even go look at the other room. So we threw a towel over the stains and made sure to wear shoes at all times. Since these were pre-paid rooms we really had no choice but to stay there. Luckily I had brought along blankets in the car which we used to sleep on. The next day after we returned from an outing the beds were made but the pubic hair was still on the bathroom floor and nobody ever cleaned the blood up off the floor in the other room. They picked the towel up but left the blood… Can you give a hotel a negative star count? If yes then this place gets a minus 10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r209215574-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>209215574</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Nasty.... Unsafe ...Avoid!</t>
+  </si>
+  <si>
+    <t>Seems like a good location for the OC... BUT, it was AWFUL!! Freaky people loitering everywhere, felt very unsafe. Got hit up for spare change on the stairwell. YUCK! Room smelled..  people in and out of rooms all night long. Nasty bed. Go anywhere else but here!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r194691485-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>194691485</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The place was clean, roomy enough, had fridge, microwave and simple breakfast. Staff was nice and accommodating. Price was reasonable and less than other like facilities. This is so close to lots of restaurants, including and In 'N Out burger in front of the inn.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r188203513-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>188203513</t>
+  </si>
+  <si>
+    <t>12/21/2013</t>
+  </si>
+  <si>
+    <t>It needs a little TLC</t>
+  </si>
+  <si>
+    <t>Room was a good price and worked fine for the two of us to stay one night. Friendly and helpful staff. Ice machine on our side of the building was broken, so we had to walk all the way over to the far end of the lot where the lobby was to get ice. The red stir sticks in the wicker basket for the coffee all had brown coffee inside of them that was old and sticky so they'd obviously been used by the prior tenant of the unit.  The complementary lotion bottle was three quarters already used by the previous units tenant. I am not a very tall woman, and I had to almost get on my knees in the shower because the shower was not adjustable. It may have been adjustable at one point but it was stuck. There is a working television and refrigerator we did not use. The bed was hard but comfortable for us. All of the lights seem to work well. The room was hot and stuffy when we got here, so we turn the air conditioning unit on and it worked really well had to end up turning the heat on towards the middle of the night and that worked well also.  There did not seem to be any noticeable stink coming from the room is smelled pretty pleasant and the counters and surfaces all seem to be pretty well cleaned.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Room was a good price and worked fine for the two of us to stay one night. Friendly and helpful staff. Ice machine on our side of the building was broken, so we had to walk all the way over to the far end of the lot where the lobby was to get ice. The red stir sticks in the wicker basket for the coffee all had brown coffee inside of them that was old and sticky so they'd obviously been used by the prior tenant of the unit.  The complementary lotion bottle was three quarters already used by the previous units tenant. I am not a very tall woman, and I had to almost get on my knees in the shower because the shower was not adjustable. It may have been adjustable at one point but it was stuck. There is a working television and refrigerator we did not use. The bed was hard but comfortable for us. All of the lights seem to work well. The room was hot and stuffy when we got here, so we turn the air conditioning unit on and it worked really well had to end up turning the heat on towards the middle of the night and that worked well also.  There did not seem to be any noticeable stink coming from the room is smelled pretty pleasant and the counters and surfaces all seem to be pretty well cleaned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r181893159-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>181893159</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Pretty bad</t>
+  </si>
+  <si>
+    <t>I just needed a cheap place to stay near Newport after going out one night and I booked this hotel...One of the worst I have ever stayed in...The sink and vanity area had at least 200 cigarette burns on the counter...I didn't even feel safe with the door locked...I honestly put a chair to the door...There is a table and chairs in there but they looked like horrific so I did not even bother to sit down...I pulled off the comforter cause that was not going to touch my skin...I barely slept that night cause I just got creeped out...Honestly it reminded me of one of those places that criminals go to when they are running from the police...I can not make this stuff up...so if you ever watch a cop shows and they are at a 2 story motel yelling on a megaphone to come out with your hands up...I can not say this hotel resembles those scenes pretty wellMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I just needed a cheap place to stay near Newport after going out one night and I booked this hotel...One of the worst I have ever stayed in...The sink and vanity area had at least 200 cigarette burns on the counter...I didn't even feel safe with the door locked...I honestly put a chair to the door...There is a table and chairs in there but they looked like horrific so I did not even bother to sit down...I pulled off the comforter cause that was not going to touch my skin...I barely slept that night cause I just got creeped out...Honestly it reminded me of one of those places that criminals go to when they are running from the police...I can not make this stuff up...so if you ever watch a cop shows and they are at a 2 story motel yelling on a megaphone to come out with your hands up...I can not say this hotel resembles those scenes pretty wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r169004622-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>169004622</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here unless you like ants everywhere</t>
+  </si>
+  <si>
+    <t>Warning: this hotel has a bug and cleanliness problem. We want to warn as many people as possible about this hotel. Our rate was $89/night + tax so our expectations were reasonable. We try never to compain and this is our first review post. Although the place is run down, we were willing to overlook any superficial issues until the ants, bugs, and dirtiness became too much for us. We needed to wear flip flops in the shower (shower shoes) because of the tub sanitation and uncleanliness. The "replaced sheets" were dirty, hair and filth everywhere, and the ants were in the bed (and all over). When the issues were brought to their attention, I was given a can of bug spray (raid). Unfortunately, this was a horrible experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Warning: this hotel has a bug and cleanliness problem. We want to warn as many people as possible about this hotel. Our rate was $89/night + tax so our expectations were reasonable. We try never to compain and this is our first review post. Although the place is run down, we were willing to overlook any superficial issues until the ants, bugs, and dirtiness became too much for us. We needed to wear flip flops in the shower (shower shoes) because of the tub sanitation and uncleanliness. The "replaced sheets" were dirty, hair and filth everywhere, and the ants were in the bed (and all over). When the issues were brought to their attention, I was given a can of bug spray (raid). Unfortunately, this was a horrible experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r148376030-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>148376030</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!!!!!</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE! Why don't people read these reviews and take them seriously. This place is the filthiest place you have ever seen. It is broken down with broken windows and doors that don't lock right. You will need a shower after you leave there. I didn't look at the reviews before staying there so PLEASE do yourself a favor and pay a little more to stay elsewhere. Sleeping outside would be better. I don't know why the owners don't clean this place up. It really should be shut down. It is OFFENSIVE that the owners let it go like this.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r141662102-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>141662102</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Awful, Nasty, Don't Do It</t>
+  </si>
+  <si>
+    <t>From the get go this hotel stay was just awful.  Whoever owns and operates this place should be deeply ashamed of themselves.  Don't they have any pride of ownership?  How can they in good conscience collect money from people for such a NASTY place?
+The thing is that I read some decent reviews of it and I have stayed at other Vagabond Inns in other cities that were just fine.  They are budget for sure, but usually clean and comfortable.  And this hotel really looked good on the outside.  The pool area was pretty (until you got up close) and the registration office is quite nice.  And there are two young women who at the front desk that were really sweet.  I feel sorry that they are stuck in jobs at Hotel Hell.
+The first room they put me in had no working deadbolt.  I am a single female travelling alone so this was just not going to work.  What made it worse was that the room was on the back side of the hotel with terrible lighting and no security cameras.  I called the front desk and asked for another room. 20 minutes later the maintenance guy shows up.  I show him the broken deadbolt.  He points to the lock on the doorknob and says in surly broken english for me to use that one.  I said absolutely not.  I want a room with a deadbolt.  Got it.
+The...From the get go this hotel stay was just awful.  Whoever owns and operates this place should be deeply ashamed of themselves.  Don't they have any pride of ownership?  How can they in good conscience collect money from people for such a NASTY place?The thing is that I read some decent reviews of it and I have stayed at other Vagabond Inns in other cities that were just fine.  They are budget for sure, but usually clean and comfortable.  And this hotel really looked good on the outside.  The pool area was pretty (until you got up close) and the registration office is quite nice.  And there are two young women who at the front desk that were really sweet.  I feel sorry that they are stuck in jobs at Hotel Hell.The first room they put me in had no working deadbolt.  I am a single female travelling alone so this was just not going to work.  What made it worse was that the room was on the back side of the hotel with terrible lighting and no security cameras.  I called the front desk and asked for another room. 20 minutes later the maintenance guy shows up.  I show him the broken deadbolt.  He points to the lock on the doorknob and says in surly broken english for me to use that one.  I said absolutely not.  I want a room with a deadbolt.  Got it.The second room I got had a working deadbolt but can I just say that it is one of the nastiest hotel rooms I had ever been in.  The walls were filthy.  The window locks  broken. The furniture is scratched and chipped. Drawers falling out of the dresser.  Holes in the bedspread. Holes in the sheets.  The carpeting was shredded in a few spots. They didn't even clean the toilet properly.  I've stayed in plenty of "budget" motels and hotels.  So I know what to expect.  But this is worse than the worst Motel 6 I was forced to stay in off Hwy 5 in Coalinga. And that place was BAD. I did use the pool and it was okay until you got up close to the sides of the pool and saw all the mold in the cracked concrete.  They have free WiFi but its not easy.  They don't give you a code when you check in.  You have to call the front desk.  They give you a code and then it takes about 10 minutes to find the right sign in page.I booked the place for four nights, only stayed for two.  I would have left sooner but would have lost money.  The morning after my first night at Hotel Hell, I found a housekeeper and told her that I did not need housekeeping but could I please have extra towels and some coffee packs for the next day.  She said thats not my room and walked away.  So I called the front desk and asked for the same thing.  Of course I never got the towels or coffee.Added to all the fun, was the other people staying there who felt it necessary to hold lengthy loud conversations outside my window at 4:30am.  This isn't the hotels fault.  But I am certain if I called the front desk, I would have gotten no help. What was the point.The morning after my first night there I got on Priceline and booked a Holiday Inn for $70.00 a night.  That is just $10.00 more than I was paying at Hotel Hell.  What a difference.I'm from the Costa Mesa area.  Here's a tip.  If you are on a budget, first try to bid for something on Priceline (3.5 Stars and above).  If you can't get something on Priceline.  On Newport Boulevard near 19th street is a Travelodge that isn't bad at all.  The La Quinta on the other side of the freeway from the Vagabond Inn isn't too bad either.  Just stay out of the Vagabond Inn unless you really don't care or really need a room.  Personally, I'd sleep in my car first.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>From the get go this hotel stay was just awful.  Whoever owns and operates this place should be deeply ashamed of themselves.  Don't they have any pride of ownership?  How can they in good conscience collect money from people for such a NASTY place?
+The thing is that I read some decent reviews of it and I have stayed at other Vagabond Inns in other cities that were just fine.  They are budget for sure, but usually clean and comfortable.  And this hotel really looked good on the outside.  The pool area was pretty (until you got up close) and the registration office is quite nice.  And there are two young women who at the front desk that were really sweet.  I feel sorry that they are stuck in jobs at Hotel Hell.
+The first room they put me in had no working deadbolt.  I am a single female travelling alone so this was just not going to work.  What made it worse was that the room was on the back side of the hotel with terrible lighting and no security cameras.  I called the front desk and asked for another room. 20 minutes later the maintenance guy shows up.  I show him the broken deadbolt.  He points to the lock on the doorknob and says in surly broken english for me to use that one.  I said absolutely not.  I want a room with a deadbolt.  Got it.
+The...From the get go this hotel stay was just awful.  Whoever owns and operates this place should be deeply ashamed of themselves.  Don't they have any pride of ownership?  How can they in good conscience collect money from people for such a NASTY place?The thing is that I read some decent reviews of it and I have stayed at other Vagabond Inns in other cities that were just fine.  They are budget for sure, but usually clean and comfortable.  And this hotel really looked good on the outside.  The pool area was pretty (until you got up close) and the registration office is quite nice.  And there are two young women who at the front desk that were really sweet.  I feel sorry that they are stuck in jobs at Hotel Hell.The first room they put me in had no working deadbolt.  I am a single female travelling alone so this was just not going to work.  What made it worse was that the room was on the back side of the hotel with terrible lighting and no security cameras.  I called the front desk and asked for another room. 20 minutes later the maintenance guy shows up.  I show him the broken deadbolt.  He points to the lock on the doorknob and says in surly broken english for me to use that one.  I said absolutely not.  I want a room with a deadbolt.  Got it.The second room I got had a working deadbolt but can I just say that it is one of the nastiest hotel rooms I had ever been in.  The walls were filthy.  The window locks  broken. The furniture is scratched and chipped. Drawers falling out of the dresser.  Holes in the bedspread. Holes in the sheets.  The carpeting was shredded in a few spots. They didn't even clean the toilet properly.  I've stayed in plenty of "budget" motels and hotels.  So I know what to expect.  But this is worse than the worst Motel 6 I was forced to stay in off Hwy 5 in Coalinga. And that place was BAD. I did use the pool and it was okay until you got up close to the sides of the pool and saw all the mold in the cracked concrete.  They have free WiFi but its not easy.  They don't give you a code when you check in.  You have to call the front desk.  They give you a code and then it takes about 10 minutes to find the right sign in page.I booked the place for four nights, only stayed for two.  I would have left sooner but would have lost money.  The morning after my first night at Hotel Hell, I found a housekeeper and told her that I did not need housekeeping but could I please have extra towels and some coffee packs for the next day.  She said thats not my room and walked away.  So I called the front desk and asked for the same thing.  Of course I never got the towels or coffee.Added to all the fun, was the other people staying there who felt it necessary to hold lengthy loud conversations outside my window at 4:30am.  This isn't the hotels fault.  But I am certain if I called the front desk, I would have gotten no help. What was the point.The morning after my first night there I got on Priceline and booked a Holiday Inn for $70.00 a night.  That is just $10.00 more than I was paying at Hotel Hell.  What a difference.I'm from the Costa Mesa area.  Here's a tip.  If you are on a budget, first try to bid for something on Priceline (3.5 Stars and above).  If you can't get something on Priceline.  On Newport Boulevard near 19th street is a Travelodge that isn't bad at all.  The La Quinta on the other side of the freeway from the Vagabond Inn isn't too bad either.  Just stay out of the Vagabond Inn unless you really don't care or really need a room.  Personally, I'd sleep in my car first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r138144063-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>138144063</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Wouldn't be my first recomendation</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights after someone recommended it to me. The staff was great. The pool area was nice and there are places close by to eat. There is an In-N-Out Burger right next to the parking lot. The rooms are old and need of a remodeling. The first night we stayed in a room where someone had obviously made a smoking room out of a non-smoking room. The place smelled like cigars. Horrible! The carpet was very stained and all of the furniture was well worn. We put up with it because we got there late at night and just wanted to sleep. In the morning we told the staff at the front desk about the smell in the room and they were very helpful getting us a new room for the next night. The first new room we tried smelled so musty and like mold that we asked to change again. The second room also smelled like mold, just not quite as bad and we decided to stay there. Both rooms had the stained carpet and worn furniture and were very dated. I was on an 11 day trip and stayed in five different places and this was by far the worse place I stayed during the entire trip. There are some other motels nearby and if I stay in the area again, I’ll check them out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights after someone recommended it to me. The staff was great. The pool area was nice and there are places close by to eat. There is an In-N-Out Burger right next to the parking lot. The rooms are old and need of a remodeling. The first night we stayed in a room where someone had obviously made a smoking room out of a non-smoking room. The place smelled like cigars. Horrible! The carpet was very stained and all of the furniture was well worn. We put up with it because we got there late at night and just wanted to sleep. In the morning we told the staff at the front desk about the smell in the room and they were very helpful getting us a new room for the next night. The first new room we tried smelled so musty and like mold that we asked to change again. The second room also smelled like mold, just not quite as bad and we decided to stay there. Both rooms had the stained carpet and worn furniture and were very dated. I was on an 11 day trip and stayed in five different places and this was by far the worse place I stayed during the entire trip. There are some other motels nearby and if I stay in the area again, I’ll check them out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r137580125-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>137580125</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>Bugs in Bed</t>
+  </si>
+  <si>
+    <t>I posted this review a couple days ago, but don't see it displayed for others to see, which I think is very important.  This hotel has gone through some major upgrades since I lived in Costa Mesa 8 years ago.  That's the only reason we stayed.  But when we had an issue with bugs all over our bed, and were treated like we were by the management...I was furious.  The cleaning staff is very, very nice.  The pool is great...and the place has really been upgraded.  But, when your bed is full of bugs, and you try to get clean sheets in the middle of the night...it's a MAJOR problem for them...and we were told that WE must have put food in our beds!  Then, when you complain the next day about it...you are treated horribly...and that's a bad thing after not getting any sleep because your bed was full of ants!! We were told, "It's not our fault there are ants in your room and all over your bed."  What???? And this was a 2nd story room. I would never, ever stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I posted this review a couple days ago, but don't see it displayed for others to see, which I think is very important.  This hotel has gone through some major upgrades since I lived in Costa Mesa 8 years ago.  That's the only reason we stayed.  But when we had an issue with bugs all over our bed, and were treated like we were by the management...I was furious.  The cleaning staff is very, very nice.  The pool is great...and the place has really been upgraded.  But, when your bed is full of bugs, and you try to get clean sheets in the middle of the night...it's a MAJOR problem for them...and we were told that WE must have put food in our beds!  Then, when you complain the next day about it...you are treated horribly...and that's a bad thing after not getting any sleep because your bed was full of ants!! We were told, "It's not our fault there are ants in your room and all over your bed."  What???? And this was a 2nd story room. I would never, ever stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r136840511-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>136840511</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Vagabond Inn - Pros &amp; Cons</t>
+  </si>
+  <si>
+    <t>Starting with the pros, the management and staff of Vagabond Inn, Costa Mesa/Orange Co., CA couldn't have been nicer and more accommodating. The manager/shuttle driver was extremely nice and went to great lengths to make our stay there as nice as possible. The housekeeping staff was A+. They could have been working in the most expensive hotels. The room was cleaned daily, no matter what time we left the room. There were always fresh towels, soaps, shampoo, etc.--even a little animal made out of the washcloth. The front desk staff were also very nice. The price was unheard of! It was very economical for a room with frig, coffee pot, microwave, hair dryer. The pool was very pretty--not just you ordinary rectangular small hotel pool. It was shaped like Mickey Mouse! Nice hot tub also. The hotel also offered free shuttle service to and from John Wayne Airport, which we used. Now for the cons. The rooms are in extreme need of renovation. On this one trip to CA we stayed for 4 night, went to sightsee in CA and came back for 3 more nights. We had 2 different rooms and they both smelled strongly of smoke or mold or something. The carpet and drapes need to be replaced!!! There was an armchair in both rooms that looked dingy--one with a tear in the back cushion. If these renovations were made, the hotel could charge more for the rooms....Starting with the pros, the management and staff of Vagabond Inn, Costa Mesa/Orange Co., CA couldn't have been nicer and more accommodating. The manager/shuttle driver was extremely nice and went to great lengths to make our stay there as nice as possible. The housekeeping staff was A+. They could have been working in the most expensive hotels. The room was cleaned daily, no matter what time we left the room. There were always fresh towels, soaps, shampoo, etc.--even a little animal made out of the washcloth. The front desk staff were also very nice. The price was unheard of! It was very economical for a room with frig, coffee pot, microwave, hair dryer. The pool was very pretty--not just you ordinary rectangular small hotel pool. It was shaped like Mickey Mouse! Nice hot tub also. The hotel also offered free shuttle service to and from John Wayne Airport, which we used. Now for the cons. The rooms are in extreme need of renovation. On this one trip to CA we stayed for 4 night, went to sightsee in CA and came back for 3 more nights. We had 2 different rooms and they both smelled strongly of smoke or mold or something. The carpet and drapes need to be replaced!!! There was an armchair in both rooms that looked dingy--one with a tear in the back cushion. If these renovations were made, the hotel could charge more for the rooms. There is certainly room for that in the price/night. If we returned, we would check first to see if the renovations have been made.MoreShow less</t>
+  </si>
+  <si>
+    <t>Starting with the pros, the management and staff of Vagabond Inn, Costa Mesa/Orange Co., CA couldn't have been nicer and more accommodating. The manager/shuttle driver was extremely nice and went to great lengths to make our stay there as nice as possible. The housekeeping staff was A+. They could have been working in the most expensive hotels. The room was cleaned daily, no matter what time we left the room. There were always fresh towels, soaps, shampoo, etc.--even a little animal made out of the washcloth. The front desk staff were also very nice. The price was unheard of! It was very economical for a room with frig, coffee pot, microwave, hair dryer. The pool was very pretty--not just you ordinary rectangular small hotel pool. It was shaped like Mickey Mouse! Nice hot tub also. The hotel also offered free shuttle service to and from John Wayne Airport, which we used. Now for the cons. The rooms are in extreme need of renovation. On this one trip to CA we stayed for 4 night, went to sightsee in CA and came back for 3 more nights. We had 2 different rooms and they both smelled strongly of smoke or mold or something. The carpet and drapes need to be replaced!!! There was an armchair in both rooms that looked dingy--one with a tear in the back cushion. If these renovations were made, the hotel could charge more for the rooms....Starting with the pros, the management and staff of Vagabond Inn, Costa Mesa/Orange Co., CA couldn't have been nicer and more accommodating. The manager/shuttle driver was extremely nice and went to great lengths to make our stay there as nice as possible. The housekeeping staff was A+. They could have been working in the most expensive hotels. The room was cleaned daily, no matter what time we left the room. There were always fresh towels, soaps, shampoo, etc.--even a little animal made out of the washcloth. The front desk staff were also very nice. The price was unheard of! It was very economical for a room with frig, coffee pot, microwave, hair dryer. The pool was very pretty--not just you ordinary rectangular small hotel pool. It was shaped like Mickey Mouse! Nice hot tub also. The hotel also offered free shuttle service to and from John Wayne Airport, which we used. Now for the cons. The rooms are in extreme need of renovation. On this one trip to CA we stayed for 4 night, went to sightsee in CA and came back for 3 more nights. We had 2 different rooms and they both smelled strongly of smoke or mold or something. The carpet and drapes need to be replaced!!! There was an armchair in both rooms that looked dingy--one with a tear in the back cushion. If these renovations were made, the hotel could charge more for the rooms. There is certainly room for that in the price/night. If we returned, we would check first to see if the renovations have been made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r127050147-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>127050147</t>
+  </si>
+  <si>
+    <t>03/31/2012</t>
+  </si>
+  <si>
+    <t>Noisy, dirty, smelly.. everything bad</t>
+  </si>
+  <si>
+    <t>I rent a room to finish my essey for school, my roomates decided to do a party at home. So i got the 60$ deal just during the day to stay in a quiet room. In front of the room has a baseball field!!! So the kids yelled the entire day!! When they finally finished the game, some kids with skates used the parking lot to pratice some moves. Great!! Not to mention the room is horrible with stains all over and smells soooo bad!! Thank God i didnt sleep there because i think ill be worst. Please stay away from it. Everything is bad in this place. You can hear the tv in the next room, people talking. Its just horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I rent a room to finish my essey for school, my roomates decided to do a party at home. So i got the 60$ deal just during the day to stay in a quiet room. In front of the room has a baseball field!!! So the kids yelled the entire day!! When they finally finished the game, some kids with skates used the parking lot to pratice some moves. Great!! Not to mention the room is horrible with stains all over and smells soooo bad!! Thank God i didnt sleep there because i think ill be worst. Please stay away from it. Everything is bad in this place. You can hear the tv in the next room, people talking. Its just horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r126716624-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>126716624</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Fleabag</t>
+  </si>
+  <si>
+    <t>Look, there are no bargains in hotels.  This is the cheapest inn in Costa Mesa, and it shows.  You can't control the temperature in your room.  In Fall/Winter/Spring, the vent blows hot air, and there is nothing you can do about it.  The place is filthy, and the service is poor.  But hey, it was cheap.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r125713806-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>125713806</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>service quality of the hotel</t>
+  </si>
+  <si>
+    <t>I was fully satisfied with everything. It is a nice clean place and everybody especially the manager is very friendly. This is why I decided to stay more than three months.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r121704364-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>121704364</t>
+  </si>
+  <si>
+    <t>12/13/2011</t>
+  </si>
+  <si>
+    <t>Very good overall</t>
+  </si>
+  <si>
+    <t>Hotel was a good value for the price.  Beds were comfortable, TV was fine, restroom/ shower was clean.  We stayed two nights and they cleaned our room very well.  Nice location by the highway, close to fast food restaurants. Short, quick drive to the beach.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r121246466-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>121246466</t>
+  </si>
+  <si>
+    <t>11/30/2011</t>
+  </si>
+  <si>
+    <t>GROSS!</t>
+  </si>
+  <si>
+    <t>I complained and even asked for another room due to a lounge chair and ottoman with several stains. The second room had the same dirt and stains. The maintenance guy tried to replace it with another but even the replacement was stained. I could not believe any hotel would present disgustingly dirty and filthy rooms. The carpet was dirty with stains as well, walls and doors dirty with a window that did not lock so they put a wood bar in it. Could hear every car on the freeway as windows were old and not insulated. Few TV channels available and the remote was missing the back so held together by masking tape. I was put next to a very loud family who was yelling at their kids at 7am! There were plenty of empty rooms and the front desk chose not to spread customers out but should have due to noise issues. Could not get any internet service in the room. Even in the reception lobby the signal was weak. I felt dirty the entire stay and would have left if it hadn't been so late at night. This hotel needs a total remodel starting from scratch but I find it very insulting that the owner gets away with presenting such a filthy place to customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I complained and even asked for another room due to a lounge chair and ottoman with several stains. The second room had the same dirt and stains. The maintenance guy tried to replace it with another but even the replacement was stained. I could not believe any hotel would present disgustingly dirty and filthy rooms. The carpet was dirty with stains as well, walls and doors dirty with a window that did not lock so they put a wood bar in it. Could hear every car on the freeway as windows were old and not insulated. Few TV channels available and the remote was missing the back so held together by masking tape. I was put next to a very loud family who was yelling at their kids at 7am! There were plenty of empty rooms and the front desk chose not to spread customers out but should have due to noise issues. Could not get any internet service in the room. Even in the reception lobby the signal was weak. I felt dirty the entire stay and would have left if it hadn't been so late at night. This hotel needs a total remodel starting from scratch but I find it very insulting that the owner gets away with presenting such a filthy place to customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r117677039-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>117677039</t>
+  </si>
+  <si>
+    <t>09/04/2011</t>
+  </si>
+  <si>
+    <t>Barely fit for Vagrants</t>
+  </si>
+  <si>
+    <t>I have been enjoying staying with the 'Vagabond Inn' chain up &amp; down California, for years w/ no complaints.   I am a frequent Traveler therefore the perks the chain provide add a bonus 'incentive' (10th nite free) and have been consistently a good, solid econo-option.  Having to be in Costa Mesa over-nite on business, I decided to stop at the local VI.  Now, I wish I had slept in my car...!  1st of all, this property compared to other VI's I visit regularly, is a poorly-maintained dump.   Unkept inside and out, I couldn't believe the delapidated condition of the entire upper wing's interiors!  The doors had been left open to all rooms from housekeeping (to air out, my guess...)  In and out, I wove through each one, to select @ least 'one' decent room - NO luck!  Furniture run down, carpeting thread-bare and stained as well as the upholstery on the grandfather chair &amp; hassock.   Travel-weary, I finally 'settled' on one of them - the lesser of all evils offered.  Later in the evening as I was going to sleep, I looked at the fresh bed-sheets, and there were multiple heat-set old blood-stains, which while sheet was laundered, Housekeeping should've had the common sense to bleach stains o-u-t before washing!  Or better still, throw away altogether!!  Bathroom shower-head rusted, and didn't pulsate properly.  The VI (customary) Internet service was broke down and Guests were forced to pay 2.95 to 'Time...I have been enjoying staying with the 'Vagabond Inn' chain up &amp; down California, for years w/ no complaints.   I am a frequent Traveler therefore the perks the chain provide add a bonus 'incentive' (10th nite free) and have been consistently a good, solid econo-option.  Having to be in Costa Mesa over-nite on business, I decided to stop at the local VI.  Now, I wish I had slept in my car...!  1st of all, this property compared to other VI's I visit regularly, is a poorly-maintained dump.   Unkept inside and out, I couldn't believe the delapidated condition of the entire upper wing's interiors!  The doors had been left open to all rooms from housekeeping (to air out, my guess...)  In and out, I wove through each one, to select @ least 'one' decent room - NO luck!  Furniture run down, carpeting thread-bare and stained as well as the upholstery on the grandfather chair &amp; hassock.   Travel-weary, I finally 'settled' on one of them - the lesser of all evils offered.  Later in the evening as I was going to sleep, I looked at the fresh bed-sheets, and there were multiple heat-set old blood-stains, which while sheet was laundered, Housekeeping should've had the common sense to bleach stains o-u-t before washing!  Or better still, throw away altogether!!  Bathroom shower-head rusted, and didn't pulsate properly.  The VI (customary) Internet service was broke down and Guests were forced to pay 2.95 to 'Time Warner' (if ) you wanted to use your Lap-Top in the room.  This is outrageous!  The Vagabond's all elsewhere go instantly Online w/o fail.  I have never been inconvenienced this way plus, the service was down I was informed, till beyond even after I checked out!  That following morning's 'Continental Brkfst.' was meager and low-budget.  NO surprises there.....I say, this location falls desperately short, of the cleanliness and normal standards of operation I am accustomed to, from this chain.  The Motel sign is the single ONLY common-denominator this property shares, with the other locations.  Do yourself a favor - stay AWAY!  (Or, spend the night outside by the pool on one of the lounge chairs - it looked pretty nice...)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I have been enjoying staying with the 'Vagabond Inn' chain up &amp; down California, for years w/ no complaints.   I am a frequent Traveler therefore the perks the chain provide add a bonus 'incentive' (10th nite free) and have been consistently a good, solid econo-option.  Having to be in Costa Mesa over-nite on business, I decided to stop at the local VI.  Now, I wish I had slept in my car...!  1st of all, this property compared to other VI's I visit regularly, is a poorly-maintained dump.   Unkept inside and out, I couldn't believe the delapidated condition of the entire upper wing's interiors!  The doors had been left open to all rooms from housekeeping (to air out, my guess...)  In and out, I wove through each one, to select @ least 'one' decent room - NO luck!  Furniture run down, carpeting thread-bare and stained as well as the upholstery on the grandfather chair &amp; hassock.   Travel-weary, I finally 'settled' on one of them - the lesser of all evils offered.  Later in the evening as I was going to sleep, I looked at the fresh bed-sheets, and there were multiple heat-set old blood-stains, which while sheet was laundered, Housekeeping should've had the common sense to bleach stains o-u-t before washing!  Or better still, throw away altogether!!  Bathroom shower-head rusted, and didn't pulsate properly.  The VI (customary) Internet service was broke down and Guests were forced to pay 2.95 to 'Time...I have been enjoying staying with the 'Vagabond Inn' chain up &amp; down California, for years w/ no complaints.   I am a frequent Traveler therefore the perks the chain provide add a bonus 'incentive' (10th nite free) and have been consistently a good, solid econo-option.  Having to be in Costa Mesa over-nite on business, I decided to stop at the local VI.  Now, I wish I had slept in my car...!  1st of all, this property compared to other VI's I visit regularly, is a poorly-maintained dump.   Unkept inside and out, I couldn't believe the delapidated condition of the entire upper wing's interiors!  The doors had been left open to all rooms from housekeeping (to air out, my guess...)  In and out, I wove through each one, to select @ least 'one' decent room - NO luck!  Furniture run down, carpeting thread-bare and stained as well as the upholstery on the grandfather chair &amp; hassock.   Travel-weary, I finally 'settled' on one of them - the lesser of all evils offered.  Later in the evening as I was going to sleep, I looked at the fresh bed-sheets, and there were multiple heat-set old blood-stains, which while sheet was laundered, Housekeeping should've had the common sense to bleach stains o-u-t before washing!  Or better still, throw away altogether!!  Bathroom shower-head rusted, and didn't pulsate properly.  The VI (customary) Internet service was broke down and Guests were forced to pay 2.95 to 'Time Warner' (if ) you wanted to use your Lap-Top in the room.  This is outrageous!  The Vagabond's all elsewhere go instantly Online w/o fail.  I have never been inconvenienced this way plus, the service was down I was informed, till beyond even after I checked out!  That following morning's 'Continental Brkfst.' was meager and low-budget.  NO surprises there.....I say, this location falls desperately short, of the cleanliness and normal standards of operation I am accustomed to, from this chain.  The Motel sign is the single ONLY common-denominator this property shares, with the other locations.  Do yourself a favor - stay AWAY!  (Or, spend the night outside by the pool on one of the lounge chairs - it looked pretty nice...)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r115499841-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>115499841</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>It  was OK but...</t>
+  </si>
+  <si>
+    <t>It was OK but ...the carpet was so dirty that it made you feel very uncomfortable to even walk on it with shoes. It had huge stains...one looked black like auto grease and one looked red like blood. And it was extremely noisy.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r114815252-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>114815252</t>
+  </si>
+  <si>
+    <t>06/27/2011</t>
+  </si>
+  <si>
+    <t>I checked right out as soon as I saw the room....wasn't sure what would crawl out at me during the night...</t>
+  </si>
+  <si>
+    <t>Room was terrible in every way!  Save your self the grief!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r106439096-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>106439096</t>
+  </si>
+  <si>
+    <t>05/01/2011</t>
+  </si>
+  <si>
+    <t>What you reserve is not what you necessairly get!</t>
+  </si>
+  <si>
+    <t>Our reservation was for a room with a micro oven and fridge.  I told the very friendly desk guy that my room did not have these things in it.  He said my reservation for those things was only good if they had any left. Otherwise, good bed, quiet and clean except for the carpet.  I wish they had tiled floors like we find in Mexico all the time.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r75228892-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>75228892</t>
+  </si>
+  <si>
+    <t>08/14/2010</t>
+  </si>
+  <si>
+    <t>Excellent hotel, Super clean, Great location, Awesome pool/spa</t>
+  </si>
+  <si>
+    <t>They FILL UP FAST so be warned, Plenty of parking even if you have a oversized truck with trailer. I stayed for work weekly and then had my wife come to stay for the weekends it was so relaxing. I will recommend this hotel.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r73835128-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>73835128</t>
+  </si>
+  <si>
+    <t>08/04/2010</t>
+  </si>
+  <si>
+    <t>Room not made ....</t>
+  </si>
+  <si>
+    <t>I found that my room was dirty and not cleaned not made when I returned to the hotel late evening. I called the front desk and was told by the person at the front desk that they would call the manager. After having waited for about 40 minutes I went to the front desk to complain. I showed him the photograph of my room that I had taken with my cell phone.The response was that they do not have any service now and they were sorry. I was told that he would again contact his manager.  I returned to my room and the after about half an hour or so the manager called and offered to give me additional towel and said that service is not available and he could send a maintenance person to vacum my room, who would not do as good as a job as the cleaning maids. It was late and I had a conference call so had to decline. Overall I am quite disappointed. I have sent an email to priceline to see if I can get some credit for that day, the manager said that since I booked my room through priceline he could not do anything.Waiting to see how priceline responds ....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I found that my room was dirty and not cleaned not made when I returned to the hotel late evening. I called the front desk and was told by the person at the front desk that they would call the manager. After having waited for about 40 minutes I went to the front desk to complain. I showed him the photograph of my room that I had taken with my cell phone.The response was that they do not have any service now and they were sorry. I was told that he would again contact his manager.  I returned to my room and the after about half an hour or so the manager called and offered to give me additional towel and said that service is not available and he could send a maintenance person to vacum my room, who would not do as good as a job as the cleaning maids. It was late and I had a conference call so had to decline. Overall I am quite disappointed. I have sent an email to priceline to see if I can get some credit for that day, the manager said that since I booked my room through priceline he could not do anything.Waiting to see how priceline responds ....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r73496168-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>73496168</t>
+  </si>
+  <si>
+    <t>08/02/2010</t>
+  </si>
+  <si>
+    <t>Stay Away! Hotel is filled with prostitutes!</t>
+  </si>
+  <si>
+    <t>My husband and I reserved 8 nights at this hotel while renovations were being done in our home.  This turned out to be a huge mistake.  On our second night, while standing outside of our room (which was directly in front of the parking lot), I was propositioned by a man offering to pay me for sex.  I DO NOT look or dress the a prostitute.  This man repeatedly propositioned me for sex and would not leave after I asked him to numerous times.  I had to call the cops but by the time they got to the hotel the man was gone.  The officer then proceeded to inform us that the Vagabond in is notorious for prostitution and that there are a number of known prostitutes living in the hotel.
+When we asked the manager of the hotel to move us to the interior of the hotel, away from the parking lot, he refused unless we were willing to pay more money!  We booked the hotel room through Priceline and contacted them hoping they would be able to help us in some way.  Priceline also requested that the hotel manager move us to a different room, but again he refused!  The worst part is that the hotel had PLENTY of vacancy and they were able to move us to a different room had they been more concerned with customer satisfaction.  Obviously this establishment only cares about making a profit,...My husband and I reserved 8 nights at this hotel while renovations were being done in our home.  This turned out to be a huge mistake.  On our second night, while standing outside of our room (which was directly in front of the parking lot), I was propositioned by a man offering to pay me for sex.  I DO NOT look or dress the a prostitute.  This man repeatedly propositioned me for sex and would not leave after I asked him to numerous times.  I had to call the cops but by the time they got to the hotel the man was gone.  The officer then proceeded to inform us that the Vagabond in is notorious for prostitution and that there are a number of known prostitutes living in the hotel.When we asked the manager of the hotel to move us to the interior of the hotel, away from the parking lot, he refused unless we were willing to pay more money!  We booked the hotel room through Priceline and contacted them hoping they would be able to help us in some way.  Priceline also requested that the hotel manager move us to a different room, but again he refused!  The worst part is that the hotel had PLENTY of vacancy and they were able to move us to a different room had they been more concerned with customer satisfaction.  Obviously this establishment only cares about making a profit, even if it is at the cost of paying customers feeling comfortable and safe!I'm not even going to bother going into detail about the dirty rooms.Do yourself a favor and stay away from this brothel, especially if you have children.  This hotel is littered with sketchy people and you will NOT feel safe if you stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I reserved 8 nights at this hotel while renovations were being done in our home.  This turned out to be a huge mistake.  On our second night, while standing outside of our room (which was directly in front of the parking lot), I was propositioned by a man offering to pay me for sex.  I DO NOT look or dress the a prostitute.  This man repeatedly propositioned me for sex and would not leave after I asked him to numerous times.  I had to call the cops but by the time they got to the hotel the man was gone.  The officer then proceeded to inform us that the Vagabond in is notorious for prostitution and that there are a number of known prostitutes living in the hotel.
+When we asked the manager of the hotel to move us to the interior of the hotel, away from the parking lot, he refused unless we were willing to pay more money!  We booked the hotel room through Priceline and contacted them hoping they would be able to help us in some way.  Priceline also requested that the hotel manager move us to a different room, but again he refused!  The worst part is that the hotel had PLENTY of vacancy and they were able to move us to a different room had they been more concerned with customer satisfaction.  Obviously this establishment only cares about making a profit,...My husband and I reserved 8 nights at this hotel while renovations were being done in our home.  This turned out to be a huge mistake.  On our second night, while standing outside of our room (which was directly in front of the parking lot), I was propositioned by a man offering to pay me for sex.  I DO NOT look or dress the a prostitute.  This man repeatedly propositioned me for sex and would not leave after I asked him to numerous times.  I had to call the cops but by the time they got to the hotel the man was gone.  The officer then proceeded to inform us that the Vagabond in is notorious for prostitution and that there are a number of known prostitutes living in the hotel.When we asked the manager of the hotel to move us to the interior of the hotel, away from the parking lot, he refused unless we were willing to pay more money!  We booked the hotel room through Priceline and contacted them hoping they would be able to help us in some way.  Priceline also requested that the hotel manager move us to a different room, but again he refused!  The worst part is that the hotel had PLENTY of vacancy and they were able to move us to a different room had they been more concerned with customer satisfaction.  Obviously this establishment only cares about making a profit, even if it is at the cost of paying customers feeling comfortable and safe!I'm not even going to bother going into detail about the dirty rooms.Do yourself a favor and stay away from this brothel, especially if you have children.  This hotel is littered with sketchy people and you will NOT feel safe if you stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r70340358-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>70340358</t>
+  </si>
+  <si>
+    <t>07/09/2010</t>
+  </si>
+  <si>
+    <t>The worst Inn I had ever experienced</t>
+  </si>
+  <si>
+    <t>We booked  with prepayment via priceline.comWe checked in around noon to get a room. 6 hours later, we came back and found they disabled our keys and not able to go into the room.After checking with front desk, the guy was very rude because we booked through priceline and saying we should not have got the room we had earlier. According to him, the room given to us by mistake and he forced us to a smaller room.The room we moved to was smaller and  very dirty .The window can be open from outside. The bed is bad it hurt my back when I lay down. The sheet has spot been burn....The worst we had ever stay. We moved out next day even we had two night reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We booked  with prepayment via priceline.comWe checked in around noon to get a room. 6 hours later, we came back and found they disabled our keys and not able to go into the room.After checking with front desk, the guy was very rude because we booked through priceline and saying we should not have got the room we had earlier. According to him, the room given to us by mistake and he forced us to a smaller room.The room we moved to was smaller and  very dirty .The window can be open from outside. The bed is bad it hurt my back when I lay down. The sheet has spot been burn....The worst we had ever stay. We moved out next day even we had two night reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r68186833-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>68186833</t>
+  </si>
+  <si>
+    <t>06/21/2010</t>
+  </si>
+  <si>
+    <t>Good sleep located between Disneyland and Newport Beach/Huntington Beach by bus</t>
+  </si>
+  <si>
+    <t>The Vagabond Hotel provided restful sleeps, a great location. You can step to the Harbor Boulevard and take the 43 Bus (N) to Disneyland (Anaheim) or South to Newport Beach / Huntington Beach for great bike rides (miles). There is a laundry place, 711 and Route 405 a stones throw away. The Hotel is quiet with well maintained as are the grounds across the street. Hold on to that “Do Not Disturb” otherwise you will have the cleaners knocking on your door at reasonable times to do their work. The pool and Jacuzzi are fine as there are also nice places to sit with shade, breeze and flours. The staff is accommodating and I look forward to returning for the fine location and sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Vagabond Hotel provided restful sleeps, a great location. You can step to the Harbor Boulevard and take the 43 Bus (N) to Disneyland (Anaheim) or South to Newport Beach / Huntington Beach for great bike rides (miles). There is a laundry place, 711 and Route 405 a stones throw away. The Hotel is quiet with well maintained as are the grounds across the street. Hold on to that “Do Not Disturb” otherwise you will have the cleaners knocking on your door at reasonable times to do their work. The pool and Jacuzzi are fine as there are also nice places to sit with shade, breeze and flours. The staff is accommodating and I look forward to returning for the fine location and sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r67420475-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>67420475</t>
+  </si>
+  <si>
+    <t>06/13/2010</t>
+  </si>
+  <si>
+    <t>Was not what I expected</t>
+  </si>
+  <si>
+    <t>After reading the other reviews of this place I decided we'd try it on an up coming trip.  What a mistake.  The rooms were not the cleanest, things didn't work AND worst of all the room next door had noisy people who sat outside smoking, drinking and swearing till 4AM (couldn't reach anyone on the front desk but don't know what they could have done about it anyway).  We saw 2 police cars coming out of the hotel parking lot when we booked in, perhaps that should have told us something!  Didn't feel a safe area at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r33014495-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>33014495</t>
+  </si>
+  <si>
+    <t>06/23/2009</t>
+  </si>
+  <si>
+    <t>friendly staff , nice clean rooms , great stay</t>
+  </si>
+  <si>
+    <t>we stayed 4 weeks &amp; i have no complaints. clean swimming pool &amp; jacuzzivery courteous &amp; friendly staff</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r32975110-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>32975110</t>
+  </si>
+  <si>
+    <t>Charming, Relaxing, Quiet</t>
+  </si>
+  <si>
+    <t>I just wanted to give a general "You Guys Rock!" to literally EVERYONE who works there. Everyone there was super nice and unbelievably good at what they do, So I just wanted to give them a well-deserved Thumbs Up!My parents had a room and my husband and I had a room. We asked to be close to each other and the hotel staff accommodated our request cheerfully. The hotel is beautiful and everything was clean. The staff handled special requests promptly. My favorite things: the beds (awesome), the pillows,  the lighted makeup mirror . Outdoor Pool is nice and pretty big and they have nice hot tub too. Most of all, the staff provided exceptional service! I will definitely stay there next time when i am in Costa mesa .MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I just wanted to give a general "You Guys Rock!" to literally EVERYONE who works there. Everyone there was super nice and unbelievably good at what they do, So I just wanted to give them a well-deserved Thumbs Up!My parents had a room and my husband and I had a room. We asked to be close to each other and the hotel staff accommodated our request cheerfully. The hotel is beautiful and everything was clean. The staff handled special requests promptly. My favorite things: the beds (awesome), the pillows,  the lighted makeup mirror . Outdoor Pool is nice and pretty big and they have nice hot tub too. Most of all, the staff provided exceptional service! I will definitely stay there next time when i am in Costa mesa .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r30961846-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>30961846</t>
+  </si>
+  <si>
+    <t>05/27/2009</t>
+  </si>
+  <si>
+    <t>Vagabond Inn is a really beautiful place to stay</t>
+  </si>
+  <si>
+    <t>Recently I had to wait six weeks for my new place in Costa Mesa to be remodeled so I decided to stay in a hotel. Living here I know very well Orange County but nothing about hotels, so I thought this was a good opportunity to try some of them in the area. A little bit for curiosity and also to have an inside to help visiting friends (I never know which hotel to suggest…). 
+Let me say this: Vagabond Inn is a really beautiful place to stay. It has been recently remodeled and it looks really great with POOL and JACUZZI heated until late night and with very charming illumination of the surrounding palms. The manager gave me 1 night free every 9 nights paid: that was a very good opportunity for me because, as I said, I wanted to try various hotels. 
+But he was right, because it turned out that after vagabonding 7 hotels I came back here to Vagabond Inn. And for many good and different reasons: ALL the service people are very nice and always smiling, the place is clean and close to 405-55 intersection. There are bunch of restaurants close by in Harbor, it is located at 10 mins from the beach and (I am a biker) very close to the fun Santa Ana river trail. But read here! In the morning they have free buffet with: bananas, apples, 3 different cereals, 5 different...Recently I had to wait six weeks for my new place in Costa Mesa to be remodeled so I decided to stay in a hotel. Living here I know very well Orange County but nothing about hotels, so I thought this was a good opportunity to try some of them in the area. A little bit for curiosity and also to have an inside to help visiting friends (I never know which hotel to suggest…). Let me say this: Vagabond Inn is a really beautiful place to stay. It has been recently remodeled and it looks really great with POOL and JACUZZI heated until late night and with very charming illumination of the surrounding palms. The manager gave me 1 night free every 9 nights paid: that was a very good opportunity for me because, as I said, I wanted to try various hotels. But he was right, because it turned out that after vagabonding 7 hotels I came back here to Vagabond Inn. And for many good and different reasons: ALL the service people are very nice and always smiling, the place is clean and close to 405-55 intersection. There are bunch of restaurants close by in Harbor, it is located at 10 mins from the beach and (I am a biker) very close to the fun Santa Ana river trail. But read here! In the morning they have free buffet with: bananas, apples, 3 different cereals, 5 different juices, tons of mini-muffins (blueberry, vanilla, chocolate, lemon, etc.) and croissants, fresh milk, coffee, tea... - No other hotel can compete - Some days they also serve special snacks. When I had a problem with the wireless connection (it works very fast at actually 5 Mbps) the manager (I think his name is Kauti) offered me to change room and the SAME DAY he replaced one wireless antenna fixing the problem! The morning I left one lady at the front desk donated me a box of chocolate candies... Believe me, there is NO OTHER HOTEL in all Costa Mesa and surrounding areas that can beat this place!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently I had to wait six weeks for my new place in Costa Mesa to be remodeled so I decided to stay in a hotel. Living here I know very well Orange County but nothing about hotels, so I thought this was a good opportunity to try some of them in the area. A little bit for curiosity and also to have an inside to help visiting friends (I never know which hotel to suggest…). 
+Let me say this: Vagabond Inn is a really beautiful place to stay. It has been recently remodeled and it looks really great with POOL and JACUZZI heated until late night and with very charming illumination of the surrounding palms. The manager gave me 1 night free every 9 nights paid: that was a very good opportunity for me because, as I said, I wanted to try various hotels. 
+But he was right, because it turned out that after vagabonding 7 hotels I came back here to Vagabond Inn. And for many good and different reasons: ALL the service people are very nice and always smiling, the place is clean and close to 405-55 intersection. There are bunch of restaurants close by in Harbor, it is located at 10 mins from the beach and (I am a biker) very close to the fun Santa Ana river trail. But read here! In the morning they have free buffet with: bananas, apples, 3 different cereals, 5 different...Recently I had to wait six weeks for my new place in Costa Mesa to be remodeled so I decided to stay in a hotel. Living here I know very well Orange County but nothing about hotels, so I thought this was a good opportunity to try some of them in the area. A little bit for curiosity and also to have an inside to help visiting friends (I never know which hotel to suggest…). Let me say this: Vagabond Inn is a really beautiful place to stay. It has been recently remodeled and it looks really great with POOL and JACUZZI heated until late night and with very charming illumination of the surrounding palms. The manager gave me 1 night free every 9 nights paid: that was a very good opportunity for me because, as I said, I wanted to try various hotels. But he was right, because it turned out that after vagabonding 7 hotels I came back here to Vagabond Inn. And for many good and different reasons: ALL the service people are very nice and always smiling, the place is clean and close to 405-55 intersection. There are bunch of restaurants close by in Harbor, it is located at 10 mins from the beach and (I am a biker) very close to the fun Santa Ana river trail. But read here! In the morning they have free buffet with: bananas, apples, 3 different cereals, 5 different juices, tons of mini-muffins (blueberry, vanilla, chocolate, lemon, etc.) and croissants, fresh milk, coffee, tea... - No other hotel can compete - Some days they also serve special snacks. When I had a problem with the wireless connection (it works very fast at actually 5 Mbps) the manager (I think his name is Kauti) offered me to change room and the SAME DAY he replaced one wireless antenna fixing the problem! The morning I left one lady at the front desk donated me a box of chocolate candies... Believe me, there is NO OTHER HOTEL in all Costa Mesa and surrounding areas that can beat this place!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r15197333-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>15197333</t>
+  </si>
+  <si>
+    <t>04/21/2008</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>We moved over here from the Motel 6 across the street because we wanted a bit more comfort. We used to live in Costa Mesa so were visiting friends. THE POOL AND JACUZZI ARE HEATED. This was a great feature. Nice place outside to lounge and free breakfast (Cakes, croissants and fruit) with all day breakfast. We booked online with the Vagabond site and paid $65 midweek (before tax) and $69 at the weekend. Stayed for 11 nights and so got tenth free making it only marginally more than the Motel 6 (cold miserable pool, noisy aircon). Very friendly, clean place. Quiet (we had a room overlooking Tewinkle School). If you are a runner its a short way down Giseler to the Santa Anna river trail - go towards the beach and a big nature reserve is on the left - beautiful. 4 miles down is the beach. If you are without a car OC buses are a cheap and easy way to get around and to the beach.We loved our stay and found it one of the best value places we have stayed anywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>We moved over here from the Motel 6 across the street because we wanted a bit more comfort. We used to live in Costa Mesa so were visiting friends. THE POOL AND JACUZZI ARE HEATED. This was a great feature. Nice place outside to lounge and free breakfast (Cakes, croissants and fruit) with all day breakfast. We booked online with the Vagabond site and paid $65 midweek (before tax) and $69 at the weekend. Stayed for 11 nights and so got tenth free making it only marginally more than the Motel 6 (cold miserable pool, noisy aircon). Very friendly, clean place. Quiet (we had a room overlooking Tewinkle School). If you are a runner its a short way down Giseler to the Santa Anna river trail - go towards the beach and a big nature reserve is on the left - beautiful. 4 miles down is the beach. If you are without a car OC buses are a cheap and easy way to get around and to the beach.We loved our stay and found it one of the best value places we have stayed anywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r7790753-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>7790753</t>
+  </si>
+  <si>
+    <t>06/05/2007</t>
+  </si>
+  <si>
+    <t>I give this place two thumbs up!</t>
+  </si>
+  <si>
+    <t>I am staying here at The Vagabond this week, for an ongoing project in the area.Clean rooms, friendly people at the front desk, visible manager. Who could ask for more!?!</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r7636618-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>7636618</t>
+  </si>
+  <si>
+    <t>05/16/2007</t>
+  </si>
+  <si>
+    <t>Acceptably Adequate</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on a Friday night. I booked a Queen room online the day before at $89, but when we checked in the clerk offered us a King. I said no no, we don't need a King at additional cost. He clarified that the King would be $79. We took it.When asked whether we wanted to be upstairs or down, I joked that I didn't like being below a 300 pound guy clomping around upstairs. He took me seriously, promising not  to book anyone directly above us, and apparently kept his word.The room was plain and clean, with a microwave, refrigerator, iron and ironing board, a coffee pot and a safe. We used only the coffee pot. The Expedia site says this is a "contemporary" hotel. Hardly. As other reviewers have noted, it's older, but still OK. Even so, there were no grab bars in the tub/shower, and the electrical outlet over the wash basin did not incorporate a Ground Fault Interrupter.Freeway noise was muted, not a problem at all.The complimentary breakfast was minimal, coffee, tea, juice, some fruit, and some prepackaged danish and buttermilk bars.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on a Friday night. I booked a Queen room online the day before at $89, but when we checked in the clerk offered us a King. I said no no, we don't need a King at additional cost. He clarified that the King would be $79. We took it.When asked whether we wanted to be upstairs or down, I joked that I didn't like being below a 300 pound guy clomping around upstairs. He took me seriously, promising not  to book anyone directly above us, and apparently kept his word.The room was plain and clean, with a microwave, refrigerator, iron and ironing board, a coffee pot and a safe. We used only the coffee pot. The Expedia site says this is a "contemporary" hotel. Hardly. As other reviewers have noted, it's older, but still OK. Even so, there were no grab bars in the tub/shower, and the electrical outlet over the wash basin did not incorporate a Ground Fault Interrupter.Freeway noise was muted, not a problem at all.The complimentary breakfast was minimal, coffee, tea, juice, some fruit, and some prepackaged danish and buttermilk bars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r4395962-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>4395962</t>
+  </si>
+  <si>
+    <t>01/28/2006</t>
+  </si>
+  <si>
+    <t>Very old property, but ok</t>
+  </si>
+  <si>
+    <t>Good for a short 1-3 night stay, not for romantics or couples, but served its purpose for me.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r3643956-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>3643956</t>
+  </si>
+  <si>
+    <t>07/05/2005</t>
+  </si>
+  <si>
+    <t>Ok For The Room Rate</t>
+  </si>
+  <si>
+    <t>This hotel is ok for a short stay. I prefer a 4 to 5 star hotel but decided to try a cheap inn/motel since I planned on being at the beach all day.  The room was cheap yet very clean.  The location is right off I-405 and about 5 minutes from Newport Beach/Balboa Pier.  There are plenty of restaraunts and major retailers in the area.  If you are looking for a good economy inn/motel for a cheap getaway....you'll be satisfied with this Vegabond Costa Mesa. Remember you get what you pay... so no fancy furniture or  wet bars will be in the room... just the basics.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1928,4244 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>136</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>204</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L30" t="s">
+        <v>215</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>216</v>
+      </c>
+      <c r="O30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>228</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" t="s">
+        <v>234</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>228</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" t="s">
+        <v>240</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>251</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" t="s">
+        <v>257</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>260</v>
+      </c>
+      <c r="J38" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" t="s">
+        <v>262</v>
+      </c>
+      <c r="L38" t="s">
+        <v>263</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>264</v>
+      </c>
+      <c r="O38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" t="s">
+        <v>268</v>
+      </c>
+      <c r="L39" t="s">
+        <v>269</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>270</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" t="s">
+        <v>276</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>277</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J41" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s">
+        <v>283</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>287</v>
+      </c>
+      <c r="J42" t="s">
+        <v>288</v>
+      </c>
+      <c r="K42" t="s">
+        <v>289</v>
+      </c>
+      <c r="L42" t="s">
+        <v>290</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>291</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>293</v>
+      </c>
+      <c r="J43" t="s">
+        <v>294</v>
+      </c>
+      <c r="K43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L43" t="s">
+        <v>296</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>297</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>300</v>
+      </c>
+      <c r="J44" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" t="s">
+        <v>302</v>
+      </c>
+      <c r="L44" t="s">
+        <v>303</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>304</v>
+      </c>
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>307</v>
+      </c>
+      <c r="J45" t="s">
+        <v>308</v>
+      </c>
+      <c r="K45" t="s">
+        <v>309</v>
+      </c>
+      <c r="L45" t="s">
+        <v>310</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>311</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>304</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>320</v>
+      </c>
+      <c r="J47" t="s">
+        <v>321</v>
+      </c>
+      <c r="K47" t="s">
+        <v>322</v>
+      </c>
+      <c r="L47" t="s">
+        <v>323</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>324</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>327</v>
+      </c>
+      <c r="J48" t="s">
+        <v>328</v>
+      </c>
+      <c r="K48" t="s">
+        <v>329</v>
+      </c>
+      <c r="L48" t="s">
+        <v>330</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>324</v>
+      </c>
+      <c r="O48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>332</v>
+      </c>
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" t="s">
+        <v>334</v>
+      </c>
+      <c r="L49" t="s">
+        <v>335</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>336</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s">
+        <v>340</v>
+      </c>
+      <c r="L50" t="s">
+        <v>341</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>342</v>
+      </c>
+      <c r="O50" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>344</v>
+      </c>
+      <c r="J51" t="s">
+        <v>345</v>
+      </c>
+      <c r="K51" t="s">
+        <v>346</v>
+      </c>
+      <c r="L51" t="s">
+        <v>347</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>348</v>
+      </c>
+      <c r="O51" t="s">
+        <v>67</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>351</v>
+      </c>
+      <c r="J52" t="s">
+        <v>352</v>
+      </c>
+      <c r="K52" t="s">
+        <v>353</v>
+      </c>
+      <c r="L52" t="s">
+        <v>354</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>357</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>358</v>
+      </c>
+      <c r="J53" t="s">
+        <v>359</v>
+      </c>
+      <c r="K53" t="s">
+        <v>360</v>
+      </c>
+      <c r="L53" t="s">
+        <v>361</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>362</v>
+      </c>
+      <c r="O53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>364</v>
+      </c>
+      <c r="J54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" t="s">
+        <v>366</v>
+      </c>
+      <c r="L54" t="s">
+        <v>367</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>368</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>370</v>
+      </c>
+      <c r="J55" t="s">
+        <v>371</v>
+      </c>
+      <c r="K55" t="s">
+        <v>372</v>
+      </c>
+      <c r="L55" t="s">
+        <v>373</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>374</v>
+      </c>
+      <c r="O55" t="s">
+        <v>82</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>375</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>376</v>
+      </c>
+      <c r="J56" t="s">
+        <v>377</v>
+      </c>
+      <c r="K56" t="s">
+        <v>378</v>
+      </c>
+      <c r="L56" t="s">
+        <v>379</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>380</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>381</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>382</v>
+      </c>
+      <c r="J57" t="s">
+        <v>383</v>
+      </c>
+      <c r="K57" t="s">
+        <v>384</v>
+      </c>
+      <c r="L57" t="s">
+        <v>385</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>386</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>389</v>
+      </c>
+      <c r="J58" t="s">
+        <v>390</v>
+      </c>
+      <c r="K58" t="s">
+        <v>391</v>
+      </c>
+      <c r="L58" t="s">
+        <v>392</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>380</v>
+      </c>
+      <c r="O58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>394</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>395</v>
+      </c>
+      <c r="J59" t="s">
+        <v>396</v>
+      </c>
+      <c r="K59" t="s">
+        <v>397</v>
+      </c>
+      <c r="L59" t="s">
+        <v>398</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>399</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>401</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s">
+        <v>405</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>399</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>407</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>408</v>
+      </c>
+      <c r="J61" t="s">
+        <v>409</v>
+      </c>
+      <c r="K61" t="s">
+        <v>410</v>
+      </c>
+      <c r="L61" t="s">
+        <v>411</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>399</v>
+      </c>
+      <c r="O61" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>412</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>413</v>
+      </c>
+      <c r="J62" t="s">
+        <v>414</v>
+      </c>
+      <c r="K62" t="s">
+        <v>415</v>
+      </c>
+      <c r="L62" t="s">
+        <v>416</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>417</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>418</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>419</v>
+      </c>
+      <c r="J63" t="s">
+        <v>414</v>
+      </c>
+      <c r="K63" t="s">
+        <v>420</v>
+      </c>
+      <c r="L63" t="s">
+        <v>421</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>422</v>
+      </c>
+      <c r="O63" t="s">
+        <v>82</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>424</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>425</v>
+      </c>
+      <c r="J64" t="s">
+        <v>426</v>
+      </c>
+      <c r="K64" t="s">
+        <v>427</v>
+      </c>
+      <c r="L64" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>422</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>431</v>
+      </c>
+      <c r="J65" t="s">
+        <v>432</v>
+      </c>
+      <c r="K65" t="s">
+        <v>433</v>
+      </c>
+      <c r="L65" t="s">
+        <v>434</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>435</v>
+      </c>
+      <c r="O65" t="s">
+        <v>82</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>437</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>438</v>
+      </c>
+      <c r="J66" t="s">
+        <v>439</v>
+      </c>
+      <c r="K66" t="s">
+        <v>440</v>
+      </c>
+      <c r="L66" t="s">
+        <v>441</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>442</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>443</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>444</v>
+      </c>
+      <c r="J67" t="s">
+        <v>445</v>
+      </c>
+      <c r="K67" t="s">
+        <v>446</v>
+      </c>
+      <c r="L67" t="s">
+        <v>447</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>448</v>
+      </c>
+      <c r="O67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>450</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>451</v>
+      </c>
+      <c r="J68" t="s">
+        <v>452</v>
+      </c>
+      <c r="K68" t="s">
+        <v>453</v>
+      </c>
+      <c r="L68" t="s">
+        <v>454</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10372</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>455</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>456</v>
+      </c>
+      <c r="J69" t="s">
+        <v>457</v>
+      </c>
+      <c r="K69" t="s">
+        <v>458</v>
+      </c>
+      <c r="L69" t="s">
+        <v>459</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_811.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_811.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>csilavong</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>kw62018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r589800575-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I've stayed in this hotel numerous times over the last two months and have had numerous issues and finally decided to never go back. I stayed in room 158 about a month ago and was bitten numerous times by bugs (I thought it was a fluke and did nothing about it). I stayed there again recently in room 255 and was attacked even worse. I brought it to management's attention and they were totally disinterested and unresponsive. This is not the only issue at the hotel, there is a steady stream of people loitering around the hotel and you constantly feel unsafe. I suggest finding a different property. This is one of the cheapest places in the area and you definitely get what you pay for. Just a suggestion but, I would spend the extra 10 bucks somewhere else...I know I will moving forward.More</t>
   </si>
   <si>
+    <t>mikefundora</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r586255209-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Our whole family loves this place. Close enough to Disneyland to make it a quick trip to the Magic Kingdom, but far enough away to avoid the crazy high hotel prices closer to Disneyland. And located right on Interstate 405, which the locals call "the 405".  :-)  The staff is great with families and kids and our kids love the free breakfast in the hotel lobby and the swimming pool. And by the time we return from Disneyland at night, Martha and her housekeeping posse always have our room looking great. The front desk led by Sharmin is always a pleasure to deal with. What we like most about this place is that we see the same staff members every time we visit which makes it a bit of a home away from home, especially for the kids. Btw, there's an awesome In and Out burger joint right next door. This place is a gem. Thanks for the great experience!More</t>
   </si>
   <si>
+    <t>Geraldine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r566517091-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I chose this Inn because it's located near where I had a Cirque show ticket at the OC Fairground. As a solo female traveler, I was a bit concerned when assigned a room that was the farthest possible from the office. The room itself was defaced with pencil scribbles (done by a child) on the walls and doors and had, obviously, never been cleaned off. The neighboring rooms had sketchy people hanging around their open doors. Multiple people from the street came up on bicycles to repeatedly do deals.There was no working deadbolt on my door - only a slide latch. Someone tried to pop my door open the next morning while I was in the bathroom - the evidence being the popped slide latch.  Travelers beware!!!!!!More</t>
   </si>
   <si>
+    <t>Daniel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r562585300-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -265,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>PaulHU2731GY</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r558928912-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
@@ -291,6 +309,9 @@
 The room I had was a king size bed in which was comfortable and had plenty of pillows and blankets.  The room decorations again were of dark colours green and fawn which are ok.  The air con, shower, and hand basin made an awful screeching noise when turned on.  No plug supplied for hand basin.  The smoke detector was completely missing....It's been quite a while since I last stayed at this motel in the Vagabond chain.  I think about 35 years or so since last here and I was disappointed when I first saw the external view of this inn, which I also found hard to find because it's now hidden behind a gas station and the Inn &amp; Out burger place.  The outdoor Vagabond signage will have to be enlargedThe orange colour external walls need replacing with a more lighter colour.  I'm not a fan of dark orange on dark brown. The first room I was assigned to, was on the far west side of the property, the key card would have worked ok had the door handle not have been broken, the next room was in same area but this time worked ok.  I found the present key card door system a bit tricky as had to stoop to find the slot, this door had seen better days and is showing its age.   The whole property 35 years ago was in a better condition than today.  The room I had was a king size bed in which was comfortable and had plenty of pillows and blankets.  The room decorations again were of dark colours green and fawn which are ok.  The air con, shower, and hand basin made an awful screeching noise when turned on.  No plug supplied for hand basin.  The smoke detector was completely missing.  The electrical switches for lights were slide controlled and looked very ancient.  My neighbours plumbing also noisey when in action.  No TV remote either.  Room furniture was ok although in need of refreshing.  TV worked ok although picture size was smaller than the now standard 32".  The house keeping staff are very friendly, despite my English accent they understood me. The receptionist lady who dealt with me was very attentive and efficient if a little stressed and always on duty, reckon she should have some help on front desk especially around check out/in times.  Her front desk computer kept crashing on her.  I never saw manager, although if I did no one had name badges on or any particular standard uniform so who knows I might have. The property seems safe and secure, although at times in mid mornings &amp; early evenings there are some single maybe homeless men who seem to wander the property corridors.  Parking permits were issued for the cars but never saw any security officials checking or walking the perimeters. This property is need of some TLC. The room rates are average although a new motel 6 just across the street is no doubt causing competition. I would like to stay at the Vagabond again though and will try to do so within a lesser time slot to.More</t>
   </si>
   <si>
+    <t>Markus T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r554504407-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>bishopric</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r552323178-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>fsiaca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r542878423-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Cristian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r492990249-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Randell G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r469928039-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Indi237</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r445895894-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Terry F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r416271776-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Harry R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r415389953-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Donna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r412924226-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>My daughter and I were traveling with other teenage girls and a few other adults to a nearby horse show. There was a room not far from ours that had several men staying in the room. There was a smell of marijuana coming from the room and they had their boxer shorts hanging on the rail near their door. We arrived late and had to walk by several times to unload our vehicle. Their door was wide open and it appeared there were about 5-6 men staying in a room with two queen beds. I called for a roll away bed and was told I needed to go back down to the office to present my credit card, even though I had checked in with my card only a few hours earlier. When I walked to the office, it appeared that some people may be taking long term or permanent residence at the hotel. I noticed activity in the parking lot that looked as if there were drug deals taking place. When I reached the office and expressed my concern, I was told the hotel had security. That was music to my ears and I requested a security guard to walk me back to my room. Then I was told that security was only present on the weekends, and this was a week day! Early the next morning (about 6:45am) we walked our group of girls past the room with...My daughter and I were traveling with other teenage girls and a few other adults to a nearby horse show. There was a room not far from ours that had several men staying in the room. There was a smell of marijuana coming from the room and they had their boxer shorts hanging on the rail near their door. We arrived late and had to walk by several times to unload our vehicle. Their door was wide open and it appeared there were about 5-6 men staying in a room with two queen beds. I called for a roll away bed and was told I needed to go back down to the office to present my credit card, even though I had checked in with my card only a few hours earlier. When I walked to the office, it appeared that some people may be taking long term or permanent residence at the hotel. I noticed activity in the parking lot that looked as if there were drug deals taking place. When I reached the office and expressed my concern, I was told the hotel had security. That was music to my ears and I requested a security guard to walk me back to my room. Then I was told that security was only present on the weekends, and this was a week day! Early the next morning (about 6:45am) we walked our group of girls past the room with all of the men to find their door was still open and there were many men laying around sleeping in their underwear. We headed to our cars to go to the horse show and found a man drinking beer in the parking lot! Needless to say we packed the cars and checked out. The man at the front desk was very apologetic and was very good about refunding me for the nights we had not stayed. The room was clean and everything in our room was in working order. More</t>
   </si>
   <si>
+    <t>Mary R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r412800770-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -468,6 +516,9 @@
     <t>Spend $20 and put up new drapes    Put blankets on the bed that don't have cigarette burns and tears in them.   Try to take a little pride in your property that was absolutely filthy and disgusting.   I stay at Hilton hotels for work..   For personal travel I've stated at many budget hotels and I've never seen anything so dirty.   This propert makes Motel 6 look like a luxury hotel.  Quite frankly I'd be embarrassed to ask for a review.   Maybe management needs to take a tour of their properties</t>
   </si>
   <si>
+    <t>lynannem261</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r412776650-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -480,6 +531,9 @@
     <t>Would not stay here again.  Beds were extremely uncomfortable and mattress creaked every time we moved.  Changed rooms after we checked in as room was not very well cleaned and Could not access wifi.  Second room had no refrigerator and safe was broken.  Had to request a hair dryer.  Staff was accommodating and it was quiet.</t>
   </si>
   <si>
+    <t>Janae  G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r412771274-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -492,6 +546,9 @@
     <t>I was first given a smoking room, when I walked in I was immediately greated by cockroaches and nats. there was mold on the walls &amp; the blanket on the bed had holes from cigarettes in it. when I brought this to the employees attention he simply said "you asked for a smoking room, correct?" making it clear he did not want to help. I was transferred to a non-smoking room that was cleaner than the first but I do NOT recommend staying at this hotel. left covered in bug bites still.</t>
   </si>
   <si>
+    <t>Diane N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r400860410-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -510,6 +567,9 @@
     <t>Pulled off the 405 in need of a hotel for the night. I guess we should have taken more notice of the unkempt reception area. It should have prepared us for the disappointment when we got to our room. Grubby, is a fair description. The furniture, electrics, bathroom all need updating. Really didn't want to walk barefoot on the carpet.'It's only for one night, we're tired, it'll do.' - we hadn't seen the worst yet!As we settled for the night, our first unwelcome visitor ran down the wall. Cockroaches! We spent a very unsettled night with the light on, in hope of keeping away the roaches. In the morning the receptionist just shrugged off our complaint.More</t>
   </si>
   <si>
+    <t>Carolyn B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r398450066-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -528,6 +588,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Tracy Chris G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r395956729-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -543,6 +606,9 @@
     <t>Hotel and staff were great, polite. Will stAy here every time from now on. Room was very clean, pool was clean met some great people here. Great hotel if you have pets. Very accessible to beaches and great shopping and restaurants.</t>
   </si>
   <si>
+    <t>Brenda Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r382045850-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -558,6 +624,9 @@
     <t>it was cheap and that is where the positives end. The room smelled really bad like cigarettes. Our room was not upgrated, yet our friends room that was right next door was and we paid the same price. We left for the day and came back in the evening and our clean sheets were still very damp on the bed. So gross.</t>
   </si>
   <si>
+    <t>OMCOCK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r373835134-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -576,6 +645,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Durazzo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r354553262-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -594,6 +666,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Phillip S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r298080975-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -609,6 +684,9 @@
     <t>My family (Mom and Sister, nieces and nephew) stayed here - 8/8/15. Bed bugs bit my niece on her arms, waste and shoulders. So much that there was blood on the sheets (see pics).  When brought to the housekeeping lady's attention, she did not seem to concerned. Basically said talk to the front desk. Management extended a 10% discount for the hassle. Police cruised parking lot all night. Other occupied rooms had Marijuana smoke exiting them. Activity at this hotel was less than family oriented.</t>
   </si>
   <si>
+    <t>Gary A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r298044989-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -621,6 +699,9 @@
     <t>AVOID! THE WORST!  Terrible, terrible terrible!  Room reeked of dog and cat urine.  The carpet was disgusting.  The bathroom was disgusting, moldy.  You can find a better room in the slums of TJ.  The health department should close this dump down.  How anyone can give this hole a decent review baffles me.</t>
   </si>
   <si>
+    <t>rgm732</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r294488076-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -639,6 +720,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>AngSil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r272893891-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -657,6 +741,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>misledandliberated</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r261383399-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -678,6 +765,9 @@
     <t>I read a bunch of the reviews and was VERY apprehensive until I called every hotel and realized we had vacationed during Spring Break and that everything was booked.  Ok...So this isn't The Ritz....It is a budget motel....We saw two small bugs that were ***NOT*** roaches, ticks or bedbugs...rather just a couple that buzz around outside lights.  It was old and needs refurbishing but it wasn't filthy and I buy and use lysol before getting too comfortable.  If you are on a budget...This place is fine...The staff was really nice.  No issues...we stayed in 261 by the road, and though it could be a bit loud....It was alright.  Would stay again..:)More</t>
   </si>
   <si>
+    <t>Samuel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r259100174-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -693,6 +783,9 @@
     <t>Our non smoking room smelled heavily like cigarettes..we got something to eat and brought it back to the room and as we sat down to eat OUR ROOM HAD ROACHES..we opened the dresser only to find even more ROACHES INSIDE ... THIS PLACE WAS SUCH A FAIL..WOULD NOT RECOMMEND STAYING HERE</t>
   </si>
   <si>
+    <t>Denise W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r236797959-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -714,6 +807,9 @@
     <t>I stayed because they are pet friendly and ended up staying elsewhere the next night my room was absolutely disgusting! Filthy from top to bottom. I got out of the shower and was drying my hair in front of the sink and my feet were covered with black hair from the carpet.  Apparently they don't vacuum.  Mold on ceiling in bathroom. Han been painted in years. Just plain nasty. Spider webs all around front door and alot of creepy people that seem to be living there. Also I made a reservation online at 7 pm and they called me at 10:30 the same night to see if I was still coming. Why??? Never again!!! Rude on telephone when I called to early in the day to make reservation, she said we don't take reservations.  Ahhhhhh, so I just hope u have a room when I get there??? She also hung up on me without NY sort of a goodbye.More</t>
   </si>
   <si>
+    <t>bex89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r232944790-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -732,6 +828,9 @@
     <t>We needed somewhere near the airport and this was the cheapest on the night, $60, but even that felt like way too much. On arrival the hotel looked nice, but the experience went downhill quickly after that. The man working at late night reception acted if he couldn't care less, he answered the telephone whilst you were talking to him and he took an age to actually assign rooms to people. Whilst we were in there, a guy checked out with his woman of the night wandering off in the distance. The desk assistant gave us the furthest room away, next to the freeway. Whilst walking down to the room at 11pm, transients were smoking something with hotel guests on the porch and youngish kids were running around the car park area unsupervised. The room itself was so awful, the electrical socket hung off the wall dangerously. I found out when I tried to use it and it sparked. When I called reception I was told it was fine to use. The mattress was actually falling out underneath the bed and was as hard as rocks. The TV was crackly and a 90s CRT. You got free wifi, but for one device only. In the morning the free breakfast of snail raisins and polystyrene coffee was greeted to me by a homeless man hanging out indoors. But, what made me laugh in all of this, was that the cleaner had...We needed somewhere near the airport and this was the cheapest on the night, $60, but even that felt like way too much. On arrival the hotel looked nice, but the experience went downhill quickly after that. The man working at late night reception acted if he couldn't care less, he answered the telephone whilst you were talking to him and he took an age to actually assign rooms to people. Whilst we were in there, a guy checked out with his woman of the night wandering off in the distance. The desk assistant gave us the furthest room away, next to the freeway. Whilst walking down to the room at 11pm, transients were smoking something with hotel guests on the porch and youngish kids were running around the car park area unsupervised. The room itself was so awful, the electrical socket hung off the wall dangerously. I found out when I tried to use it and it sparked. When I called reception I was told it was fine to use. The mattress was actually falling out underneath the bed and was as hard as rocks. The TV was crackly and a 90s CRT. You got free wifi, but for one device only. In the morning the free breakfast of snail raisins and polystyrene coffee was greeted to me by a homeless man hanging out indoors. But, what made me laugh in all of this, was that the cleaner had arranged the toilet roll into a napkin flower. I mean that's some kind of cynical joke, right...More</t>
   </si>
   <si>
+    <t>judyttj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r222668204-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -760,6 +859,9 @@
   </si>
   <si>
     <t>I really enjoyed my stay at the Vagabond Inn. It's centrally located to highway, restaurants and the state fair!! Great management team and the service is great. Rooms are also clean too!  I would recommend the Vagabond Inn to my family and friends!</t>
+  </si>
+  <si>
+    <t>Melissa H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r215370202-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
@@ -797,6 +899,9 @@
 The front desk extortionist actually had the nerve to roll his eyes at me when I said I needed housekeeping to come...To call this Place a flea bag is an insult to fleas and bags everywhereJudging by the caution tape and the blood stains we might as well have been staying at the Bates Motel... Actually it might have been cleaner. We checked into two pre-paid rooms booked through Orbitz, at check-in I was immediately charged an additional $20 room key deposit and a $30 room “upgrade” because even though I had paid for a room with two queen beds they tried giving me a room with only one. If I wanted two I had to pay more. Nice… Upon entering the first room (which was unlocked and standing wide open) the smell of mold and cigarettes permeated everything within its confines (even though this was a non-smoking room). There were crumbs, unidentifiable stains and hair on the sheets and a wad of pubic hair was on the bathroom floor. I walked down the hall to the “upgraded” room and while it smelled better there were two bright red blood stains on the floor in the bathroom. I went back to the office to complain and while waiting for the front desk clerk I was propositioned by what I can only guess was one of the “room by the hour” customers. Ugh… Although, maybe his room was cleanerThe front desk extortionist actually had the nerve to roll his eyes at me when I said I needed housekeeping to come up to our rooms and finish cleaning them.  Ten minutes later I’m confronted by this angry lady demanding to see what was dirty. She then spent the next five minutes arguing with me that the room had been cleaned and refusing to re-clean it. After repeatedly pointing out the sheet stains and hair she stomped out of the room, grabbed a bottom sheet off of the housekeeping cart, ripped the bed apart and put ONE clean sheet onto ONE of the beds. Then she told me to leave the door open because of the smell. Ummm… So you’re acknowledging that the room smells horrible but you want me to leave the door open with all my stuff in it. Seriously?  I asked her to go clean the blood up off the floor in the Hepatitis C Suite and instead she turned around and walked away, never bothering to even go look at the other room. So we threw a towel over the stains and made sure to wear shoes at all times. Since these were pre-paid rooms we really had no choice but to stay there. Luckily I had brought along blankets in the car which we used to sleep on. The next day after we returned from an outing the beds were made but the pubic hair was still on the bathroom floor and nobody ever cleaned the blood up off the floor in the other room. They picked the towel up but left the blood… Can you give a hotel a negative star count? If yes then this place gets a minus 10.More</t>
   </si>
   <si>
+    <t>Sanditoes10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r209215574-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -815,6 +920,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Dean C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r194691485-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -833,6 +941,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Aliciamariemartin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r188203513-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -854,6 +965,9 @@
     <t>Room was a good price and worked fine for the two of us to stay one night. Friendly and helpful staff. Ice machine on our side of the building was broken, so we had to walk all the way over to the far end of the lot where the lobby was to get ice. The red stir sticks in the wicker basket for the coffee all had brown coffee inside of them that was old and sticky so they'd obviously been used by the prior tenant of the unit.  The complementary lotion bottle was three quarters already used by the previous units tenant. I am not a very tall woman, and I had to almost get on my knees in the shower because the shower was not adjustable. It may have been adjustable at one point but it was stuck. There is a working television and refrigerator we did not use. The bed was hard but comfortable for us. All of the lights seem to work well. The room was hot and stuffy when we got here, so we turn the air conditioning unit on and it worked really well had to end up turning the heat on towards the middle of the night and that worked well also.  There did not seem to be any noticeable stink coming from the room is smelled pretty pleasant and the counters and surfaces all seem to be pretty well cleaned.More</t>
   </si>
   <si>
+    <t>Luvtooxplore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r181893159-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -875,6 +989,9 @@
     <t>I just needed a cheap place to stay near Newport after going out one night and I booked this hotel...One of the worst I have ever stayed in...The sink and vanity area had at least 200 cigarette burns on the counter...I didn't even feel safe with the door locked...I honestly put a chair to the door...There is a table and chairs in there but they looked like horrific so I did not even bother to sit down...I pulled off the comforter cause that was not going to touch my skin...I barely slept that night cause I just got creeped out...Honestly it reminded me of one of those places that criminals go to when they are running from the police...I can not make this stuff up...so if you ever watch a cop shows and they are at a 2 story motel yelling on a megaphone to come out with your hands up...I can not say this hotel resembles those scenes pretty wellMore</t>
   </si>
   <si>
+    <t>Josdavidso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r169004622-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -896,6 +1013,9 @@
     <t>Warning: this hotel has a bug and cleanliness problem. We want to warn as many people as possible about this hotel. Our rate was $89/night + tax so our expectations were reasonable. We try never to compain and this is our first review post. Although the place is run down, we were willing to overlook any superficial issues until the ants, bugs, and dirtiness became too much for us. We needed to wear flip flops in the shower (shower shoes) because of the tub sanitation and uncleanliness. The "replaced sheets" were dirty, hair and filth everywhere, and the ants were in the bed (and all over). When the issues were brought to their attention, I was given a can of bug spray (raid). Unfortunately, this was a horrible experience.More</t>
   </si>
   <si>
+    <t>jbeasley8292</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r148376030-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -912,6 +1032,9 @@
   </si>
   <si>
     <t>December 2012</t>
+  </si>
+  <si>
+    <t>LuxT954</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r141662102-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
@@ -941,6 +1064,9 @@
 The...From the get go this hotel stay was just awful.  Whoever owns and operates this place should be deeply ashamed of themselves.  Don't they have any pride of ownership?  How can they in good conscience collect money from people for such a NASTY place?The thing is that I read some decent reviews of it and I have stayed at other Vagabond Inns in other cities that were just fine.  They are budget for sure, but usually clean and comfortable.  And this hotel really looked good on the outside.  The pool area was pretty (until you got up close) and the registration office is quite nice.  And there are two young women who at the front desk that were really sweet.  I feel sorry that they are stuck in jobs at Hotel Hell.The first room they put me in had no working deadbolt.  I am a single female travelling alone so this was just not going to work.  What made it worse was that the room was on the back side of the hotel with terrible lighting and no security cameras.  I called the front desk and asked for another room. 20 minutes later the maintenance guy shows up.  I show him the broken deadbolt.  He points to the lock on the doorknob and says in surly broken english for me to use that one.  I said absolutely not.  I want a room with a deadbolt.  Got it.The second room I got had a working deadbolt but can I just say that it is one of the nastiest hotel rooms I had ever been in.  The walls were filthy.  The window locks  broken. The furniture is scratched and chipped. Drawers falling out of the dresser.  Holes in the bedspread. Holes in the sheets.  The carpeting was shredded in a few spots. They didn't even clean the toilet properly.  I've stayed in plenty of "budget" motels and hotels.  So I know what to expect.  But this is worse than the worst Motel 6 I was forced to stay in off Hwy 5 in Coalinga. And that place was BAD. I did use the pool and it was okay until you got up close to the sides of the pool and saw all the mold in the cracked concrete.  They have free WiFi but its not easy.  They don't give you a code when you check in.  You have to call the front desk.  They give you a code and then it takes about 10 minutes to find the right sign in page.I booked the place for four nights, only stayed for two.  I would have left sooner but would have lost money.  The morning after my first night at Hotel Hell, I found a housekeeper and told her that I did not need housekeeping but could I please have extra towels and some coffee packs for the next day.  She said thats not my room and walked away.  So I called the front desk and asked for the same thing.  Of course I never got the towels or coffee.Added to all the fun, was the other people staying there who felt it necessary to hold lengthy loud conversations outside my window at 4:30am.  This isn't the hotels fault.  But I am certain if I called the front desk, I would have gotten no help. What was the point.The morning after my first night there I got on Priceline and booked a Holiday Inn for $70.00 a night.  That is just $10.00 more than I was paying at Hotel Hell.  What a difference.I'm from the Costa Mesa area.  Here's a tip.  If you are on a budget, first try to bid for something on Priceline (3.5 Stars and above).  If you can't get something on Priceline.  On Newport Boulevard near 19th street is a Travelodge that isn't bad at all.  The La Quinta on the other side of the freeway from the Vagabond Inn isn't too bad either.  Just stay out of the Vagabond Inn unless you really don't care or really need a room.  Personally, I'd sleep in my car first.More</t>
   </si>
   <si>
+    <t>Steve C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r138144063-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -962,6 +1088,9 @@
     <t>I stayed here for 2 nights after someone recommended it to me. The staff was great. The pool area was nice and there are places close by to eat. There is an In-N-Out Burger right next to the parking lot. The rooms are old and need of a remodeling. The first night we stayed in a room where someone had obviously made a smoking room out of a non-smoking room. The place smelled like cigars. Horrible! The carpet was very stained and all of the furniture was well worn. We put up with it because we got there late at night and just wanted to sleep. In the morning we told the staff at the front desk about the smell in the room and they were very helpful getting us a new room for the next night. The first new room we tried smelled so musty and like mold that we asked to change again. The second room also smelled like mold, just not quite as bad and we decided to stay there. Both rooms had the stained carpet and worn furniture and were very dated. I was on an 11 day trip and stayed in five different places and this was by far the worse place I stayed during the entire trip. There are some other motels nearby and if I stay in the area again, I’ll check them out.More</t>
   </si>
   <si>
+    <t>LaurieLPhoto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r137580125-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -983,6 +1112,9 @@
     <t>I posted this review a couple days ago, but don't see it displayed for others to see, which I think is very important.  This hotel has gone through some major upgrades since I lived in Costa Mesa 8 years ago.  That's the only reason we stayed.  But when we had an issue with bugs all over our bed, and were treated like we were by the management...I was furious.  The cleaning staff is very, very nice.  The pool is great...and the place has really been upgraded.  But, when your bed is full of bugs, and you try to get clean sheets in the middle of the night...it's a MAJOR problem for them...and we were told that WE must have put food in our beds!  Then, when you complain the next day about it...you are treated horribly...and that's a bad thing after not getting any sleep because your bed was full of ants!! We were told, "It's not our fault there are ants in your room and all over your bed."  What???? And this was a 2nd story room. I would never, ever stay here again.More</t>
   </si>
   <si>
+    <t>Anne H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r136840511-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1001,6 +1133,9 @@
     <t>Starting with the pros, the management and staff of Vagabond Inn, Costa Mesa/Orange Co., CA couldn't have been nicer and more accommodating. The manager/shuttle driver was extremely nice and went to great lengths to make our stay there as nice as possible. The housekeeping staff was A+. They could have been working in the most expensive hotels. The room was cleaned daily, no matter what time we left the room. There were always fresh towels, soaps, shampoo, etc.--even a little animal made out of the washcloth. The front desk staff were also very nice. The price was unheard of! It was very economical for a room with frig, coffee pot, microwave, hair dryer. The pool was very pretty--not just you ordinary rectangular small hotel pool. It was shaped like Mickey Mouse! Nice hot tub also. The hotel also offered free shuttle service to and from John Wayne Airport, which we used. Now for the cons. The rooms are in extreme need of renovation. On this one trip to CA we stayed for 4 night, went to sightsee in CA and came back for 3 more nights. We had 2 different rooms and they both smelled strongly of smoke or mold or something. The carpet and drapes need to be replaced!!! There was an armchair in both rooms that looked dingy--one with a tear in the back cushion. If these renovations were made, the hotel could charge more for the rooms....Starting with the pros, the management and staff of Vagabond Inn, Costa Mesa/Orange Co., CA couldn't have been nicer and more accommodating. The manager/shuttle driver was extremely nice and went to great lengths to make our stay there as nice as possible. The housekeeping staff was A+. They could have been working in the most expensive hotels. The room was cleaned daily, no matter what time we left the room. There were always fresh towels, soaps, shampoo, etc.--even a little animal made out of the washcloth. The front desk staff were also very nice. The price was unheard of! It was very economical for a room with frig, coffee pot, microwave, hair dryer. The pool was very pretty--not just you ordinary rectangular small hotel pool. It was shaped like Mickey Mouse! Nice hot tub also. The hotel also offered free shuttle service to and from John Wayne Airport, which we used. Now for the cons. The rooms are in extreme need of renovation. On this one trip to CA we stayed for 4 night, went to sightsee in CA and came back for 3 more nights. We had 2 different rooms and they both smelled strongly of smoke or mold or something. The carpet and drapes need to be replaced!!! There was an armchair in both rooms that looked dingy--one with a tear in the back cushion. If these renovations were made, the hotel could charge more for the rooms. There is certainly room for that in the price/night. If we returned, we would check first to see if the renovations have been made.More</t>
   </si>
   <si>
+    <t>Kelly F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r127050147-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1022,6 +1157,9 @@
     <t>I rent a room to finish my essey for school, my roomates decided to do a party at home. So i got the 60$ deal just during the day to stay in a quiet room. In front of the room has a baseball field!!! So the kids yelled the entire day!! When they finally finished the game, some kids with skates used the parking lot to pratice some moves. Great!! Not to mention the room is horrible with stains all over and smells soooo bad!! Thank God i didnt sleep there because i think ill be worst. Please stay away from it. Everything is bad in this place. You can hear the tv in the next room, people talking. Its just horrible.More</t>
   </si>
   <si>
+    <t>Danstar1096</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r126716624-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1037,6 +1175,9 @@
     <t>Look, there are no bargains in hotels.  This is the cheapest inn in Costa Mesa, and it shows.  You can't control the temperature in your room.  In Fall/Winter/Spring, the vent blows hot air, and there is nothing you can do about it.  The place is filthy, and the service is poor.  But hey, it was cheap.</t>
   </si>
   <si>
+    <t>iraj s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r125713806-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1055,6 +1196,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>JDub_Bod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r121704364-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1094,6 +1238,9 @@
     <t>I complained and even asked for another room due to a lounge chair and ottoman with several stains. The second room had the same dirt and stains. The maintenance guy tried to replace it with another but even the replacement was stained. I could not believe any hotel would present disgustingly dirty and filthy rooms. The carpet was dirty with stains as well, walls and doors dirty with a window that did not lock so they put a wood bar in it. Could hear every car on the freeway as windows were old and not insulated. Few TV channels available and the remote was missing the back so held together by masking tape. I was put next to a very loud family who was yelling at their kids at 7am! There were plenty of empty rooms and the front desk chose not to spread customers out but should have due to noise issues. Could not get any internet service in the room. Even in the reception lobby the signal was weak. I felt dirty the entire stay and would have left if it hadn't been so late at night. This hotel needs a total remodel starting from scratch but I find it very insulting that the owner gets away with presenting such a filthy place to customers.More</t>
   </si>
   <si>
+    <t>NewportBeachWords</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r117677039-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1115,6 +1262,9 @@
     <t>I have been enjoying staying with the 'Vagabond Inn' chain up &amp; down California, for years w/ no complaints.   I am a frequent Traveler therefore the perks the chain provide add a bonus 'incentive' (10th nite free) and have been consistently a good, solid econo-option.  Having to be in Costa Mesa over-nite on business, I decided to stop at the local VI.  Now, I wish I had slept in my car...!  1st of all, this property compared to other VI's I visit regularly, is a poorly-maintained dump.   Unkept inside and out, I couldn't believe the delapidated condition of the entire upper wing's interiors!  The doors had been left open to all rooms from housekeeping (to air out, my guess...)  In and out, I wove through each one, to select @ least 'one' decent room - NO luck!  Furniture run down, carpeting thread-bare and stained as well as the upholstery on the grandfather chair &amp; hassock.   Travel-weary, I finally 'settled' on one of them - the lesser of all evils offered.  Later in the evening as I was going to sleep, I looked at the fresh bed-sheets, and there were multiple heat-set old blood-stains, which while sheet was laundered, Housekeeping should've had the common sense to bleach stains o-u-t before washing!  Or better still, throw away altogether!!  Bathroom shower-head rusted, and didn't pulsate properly.  The VI (customary) Internet service was broke down and Guests were forced to pay 2.95 to 'Time...I have been enjoying staying with the 'Vagabond Inn' chain up &amp; down California, for years w/ no complaints.   I am a frequent Traveler therefore the perks the chain provide add a bonus 'incentive' (10th nite free) and have been consistently a good, solid econo-option.  Having to be in Costa Mesa over-nite on business, I decided to stop at the local VI.  Now, I wish I had slept in my car...!  1st of all, this property compared to other VI's I visit regularly, is a poorly-maintained dump.   Unkept inside and out, I couldn't believe the delapidated condition of the entire upper wing's interiors!  The doors had been left open to all rooms from housekeeping (to air out, my guess...)  In and out, I wove through each one, to select @ least 'one' decent room - NO luck!  Furniture run down, carpeting thread-bare and stained as well as the upholstery on the grandfather chair &amp; hassock.   Travel-weary, I finally 'settled' on one of them - the lesser of all evils offered.  Later in the evening as I was going to sleep, I looked at the fresh bed-sheets, and there were multiple heat-set old blood-stains, which while sheet was laundered, Housekeeping should've had the common sense to bleach stains o-u-t before washing!  Or better still, throw away altogether!!  Bathroom shower-head rusted, and didn't pulsate properly.  The VI (customary) Internet service was broke down and Guests were forced to pay 2.95 to 'Time Warner' (if ) you wanted to use your Lap-Top in the room.  This is outrageous!  The Vagabond's all elsewhere go instantly Online w/o fail.  I have never been inconvenienced this way plus, the service was down I was informed, till beyond even after I checked out!  That following morning's 'Continental Brkfst.' was meager and low-budget.  NO surprises there.....I say, this location falls desperately short, of the cleanliness and normal standards of operation I am accustomed to, from this chain.  The Motel sign is the single ONLY common-denominator this property shares, with the other locations.  Do yourself a favor - stay AWAY!  (Or, spend the night outside by the pool on one of the lounge chairs - it looked pretty nice...)More</t>
   </si>
   <si>
+    <t>red9mom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r115499841-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1133,6 +1283,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>ramblinmo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r114815252-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1151,6 +1304,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>ManzanaJim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r106439096-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1169,6 +1325,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>51chevybelair</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r75228892-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1187,6 +1346,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>travelcreek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r73835128-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1206,6 +1368,9 @@
   </si>
   <si>
     <t>I found that my room was dirty and not cleaned not made when I returned to the hotel late evening. I called the front desk and was told by the person at the front desk that they would call the manager. After having waited for about 40 minutes I went to the front desk to complain. I showed him the photograph of my room that I had taken with my cell phone.The response was that they do not have any service now and they were sorry. I was told that he would again contact his manager.  I returned to my room and the after about half an hour or so the manager called and offered to give me additional towel and said that service is not available and he could send a maintenance person to vacum my room, who would not do as good as a job as the cleaning maids. It was late and I had a conference call so had to decline. Overall I am quite disappointed. I have sent an email to priceline to see if I can get some credit for that day, the manager said that since I booked my room through priceline he could not do anything.Waiting to see how priceline responds ....More</t>
+  </si>
+  <si>
+    <t>vgbright1231</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r73496168-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
@@ -1228,6 +1393,9 @@
 When we asked the manager of the hotel to move us to the interior of the hotel, away from the parking lot, he refused unless we were willing to pay more money!  We booked the hotel room through Priceline and contacted them hoping they would be able to help us in some way.  Priceline also requested that the hotel manager move us to a different room, but again he refused!  The worst part is that the hotel had PLENTY of vacancy and they were able to move us to a different room had they been more concerned with customer satisfaction.  Obviously this establishment only cares about making a profit,...My husband and I reserved 8 nights at this hotel while renovations were being done in our home.  This turned out to be a huge mistake.  On our second night, while standing outside of our room (which was directly in front of the parking lot), I was propositioned by a man offering to pay me for sex.  I DO NOT look or dress the a prostitute.  This man repeatedly propositioned me for sex and would not leave after I asked him to numerous times.  I had to call the cops but by the time they got to the hotel the man was gone.  The officer then proceeded to inform us that the Vagabond in is notorious for prostitution and that there are a number of known prostitutes living in the hotel.When we asked the manager of the hotel to move us to the interior of the hotel, away from the parking lot, he refused unless we were willing to pay more money!  We booked the hotel room through Priceline and contacted them hoping they would be able to help us in some way.  Priceline also requested that the hotel manager move us to a different room, but again he refused!  The worst part is that the hotel had PLENTY of vacancy and they were able to move us to a different room had they been more concerned with customer satisfaction.  Obviously this establishment only cares about making a profit, even if it is at the cost of paying customers feeling comfortable and safe!I'm not even going to bother going into detail about the dirty rooms.Do yourself a favor and stay away from this brothel, especially if you have children.  This hotel is littered with sketchy people and you will NOT feel safe if you stay here.More</t>
   </si>
   <si>
+    <t>pwhite107</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r70340358-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1249,6 +1417,9 @@
     <t>We booked  with prepayment via priceline.comWe checked in around noon to get a room. 6 hours later, we came back and found they disabled our keys and not able to go into the room.After checking with front desk, the guy was very rude because we booked through priceline and saying we should not have got the room we had earlier. According to him, the room given to us by mistake and he forced us to a smaller room.The room we moved to was smaller and  very dirty .The window can be open from outside. The bed is bad it hurt my back when I lay down. The sheet has spot been burn....The worst we had ever stay. We moved out next day even we had two night reservation.More</t>
   </si>
   <si>
+    <t>Tacpatriot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r68186833-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1267,6 +1438,9 @@
     <t>The Vagabond Hotel provided restful sleeps, a great location. You can step to the Harbor Boulevard and take the 43 Bus (N) to Disneyland (Anaheim) or South to Newport Beach / Huntington Beach for great bike rides (miles). There is a laundry place, 711 and Route 405 a stones throw away. The Hotel is quiet with well maintained as are the grounds across the street. Hold on to that “Do Not Disturb” otherwise you will have the cleaners knocking on your door at reasonable times to do their work. The pool and Jacuzzi are fine as there are also nice places to sit with shade, breeze and flours. The staff is accommodating and I look forward to returning for the fine location and sleep.More</t>
   </si>
   <si>
+    <t>Aussiepam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r67420475-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1282,6 +1456,9 @@
     <t>After reading the other reviews of this place I decided we'd try it on an up coming trip.  What a mistake.  The rooms were not the cleanest, things didn't work AND worst of all the room next door had noisy people who sat outside smoking, drinking and swearing till 4AM (couldn't reach anyone on the front desk but don't know what they could have done about it anyway).  We saw 2 police cars coming out of the hotel parking lot when we booked in, perhaps that should have told us something!  Didn't feel a safe area at all.</t>
   </si>
   <si>
+    <t>rb714</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r33014495-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1300,6 +1477,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>karen_lovs_to_go_out</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r32975110-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1316,6 +1496,9 @@
   </si>
   <si>
     <t>I just wanted to give a general "You Guys Rock!" to literally EVERYONE who works there. Everyone there was super nice and unbelievably good at what they do, So I just wanted to give them a well-deserved Thumbs Up!My parents had a room and my husband and I had a room. We asked to be close to each other and the hotel staff accommodated our request cheerfully. The hotel is beautiful and everything was clean. The staff handled special requests promptly. My favorite things: the beds (awesome), the pillows,  the lighted makeup mirror . Outdoor Pool is nice and pretty big and they have nice hot tub too. Most of all, the staff provided exceptional service! I will definitely stay there next time when i am in Costa mesa .More</t>
+  </si>
+  <si>
+    <t>Sunsetgreenline</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r30961846-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
@@ -1340,6 +1523,9 @@
 But he was right, because it turned out that after vagabonding 7 hotels I came back here to Vagabond Inn. And for many good and different reasons: ALL the service people are very nice and always smiling, the place is clean and close to 405-55 intersection. There are bunch of restaurants close by in Harbor, it is located at 10 mins from the beach and (I am a biker) very close to the fun Santa Ana river trail. But read here! In the morning they have free buffet with: bananas, apples, 3 different cereals, 5 different...Recently I had to wait six weeks for my new place in Costa Mesa to be remodeled so I decided to stay in a hotel. Living here I know very well Orange County but nothing about hotels, so I thought this was a good opportunity to try some of them in the area. A little bit for curiosity and also to have an inside to help visiting friends (I never know which hotel to suggest…). Let me say this: Vagabond Inn is a really beautiful place to stay. It has been recently remodeled and it looks really great with POOL and JACUZZI heated until late night and with very charming illumination of the surrounding palms. The manager gave me 1 night free every 9 nights paid: that was a very good opportunity for me because, as I said, I wanted to try various hotels. But he was right, because it turned out that after vagabonding 7 hotels I came back here to Vagabond Inn. And for many good and different reasons: ALL the service people are very nice and always smiling, the place is clean and close to 405-55 intersection. There are bunch of restaurants close by in Harbor, it is located at 10 mins from the beach and (I am a biker) very close to the fun Santa Ana river trail. But read here! In the morning they have free buffet with: bananas, apples, 3 different cereals, 5 different juices, tons of mini-muffins (blueberry, vanilla, chocolate, lemon, etc.) and croissants, fresh milk, coffee, tea... - No other hotel can compete - Some days they also serve special snacks. When I had a problem with the wireless connection (it works very fast at actually 5 Mbps) the manager (I think his name is Kauti) offered me to change room and the SAME DAY he replaced one wireless antenna fixing the problem! The morning I left one lady at the front desk donated me a box of chocolate candies... Believe me, there is NO OTHER HOTEL in all Costa Mesa and surrounding areas that can beat this place!!!More</t>
   </si>
   <si>
+    <t>booming</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r15197333-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1361,6 +1547,9 @@
     <t>We moved over here from the Motel 6 across the street because we wanted a bit more comfort. We used to live in Costa Mesa so were visiting friends. THE POOL AND JACUZZI ARE HEATED. This was a great feature. Nice place outside to lounge and free breakfast (Cakes, croissants and fruit) with all day breakfast. We booked online with the Vagabond site and paid $65 midweek (before tax) and $69 at the weekend. Stayed for 11 nights and so got tenth free making it only marginally more than the Motel 6 (cold miserable pool, noisy aircon). Very friendly, clean place. Quiet (we had a room overlooking Tewinkle School). If you are a runner its a short way down Giseler to the Santa Anna river trail - go towards the beach and a big nature reserve is on the left - beautiful. 4 miles down is the beach. If you are without a car OC buses are a cheap and easy way to get around and to the beach.We loved our stay and found it one of the best value places we have stayed anywhere.More</t>
   </si>
   <si>
+    <t>Brianaveryfilm97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r7790753-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1379,6 +1568,9 @@
     <t>June 2007</t>
   </si>
   <si>
+    <t>dur4153</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r7636618-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1400,6 +1592,9 @@
     <t>My wife and I stayed here on a Friday night. I booked a Queen room online the day before at $89, but when we checked in the clerk offered us a King. I said no no, we don't need a King at additional cost. He clarified that the King would be $79. We took it.When asked whether we wanted to be upstairs or down, I joked that I didn't like being below a 300 pound guy clomping around upstairs. He took me seriously, promising not  to book anyone directly above us, and apparently kept his word.The room was plain and clean, with a microwave, refrigerator, iron and ironing board, a coffee pot and a safe. We used only the coffee pot. The Expedia site says this is a "contemporary" hotel. Hardly. As other reviewers have noted, it's older, but still OK. Even so, there were no grab bars in the tub/shower, and the electrical outlet over the wash basin did not incorporate a Ground Fault Interrupter.Freeway noise was muted, not a problem at all.The complimentary breakfast was minimal, coffee, tea, juice, some fruit, and some prepackaged danish and buttermilk bars.More</t>
   </si>
   <si>
+    <t>pba1817</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r4395962-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1413,6 +1608,9 @@
   </si>
   <si>
     <t>Good for a short 1-3 night stay, not for romantics or couples, but served its purpose for me.</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d84718-r3643956-Vagabond_Inn_Costa_Mesa_Orange_County_Airport-Costa_Mesa_California.html</t>
@@ -1932,43 +2130,47 @@
       <c r="A2" t="n">
         <v>10372</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1982,50 +2184,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10372</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2043,50 +2249,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10372</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2104,50 +2314,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10372</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2165,50 +2379,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10372</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2228,50 +2446,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10372</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2285,50 +2507,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10372</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2342,50 +2568,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10372</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2403,50 +2633,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10372</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2460,50 +2694,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10372</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2517,50 +2755,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10372</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2580,50 +2822,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10372</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2643,50 +2889,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10372</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2700,50 +2950,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10372</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2757,50 +3011,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10372</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2814,50 +3072,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10372</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2871,50 +3133,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10372</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2928,50 +3194,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10372</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2985,50 +3255,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10372</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3042,50 +3316,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10372</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3099,50 +3377,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10372</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3162,50 +3444,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10372</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3223,50 +3509,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10372</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3286,50 +3576,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10372</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3343,50 +3637,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10372</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3404,50 +3702,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10372</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3465,50 +3767,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10372</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3532,50 +3838,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10372</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3589,50 +3899,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10372</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="J30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3646,41 +3960,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10372</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -3709,50 +4027,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10372</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>253</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3770,50 +4092,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10372</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3831,41 +4157,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10372</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -3894,41 +4224,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10372</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -3947,50 +4281,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10372</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J36" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4006,50 +4344,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10372</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>287</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="J37" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4071,50 +4413,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10372</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>294</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4138,50 +4484,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10372</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4195,50 +4545,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10372</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4252,50 +4606,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10372</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4319,50 +4677,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10372</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>325</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4386,50 +4748,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10372</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>332</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="J43" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>2</v>
@@ -4453,50 +4819,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10372</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>340</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4520,50 +4890,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10372</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>348</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="J45" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="K45" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4587,50 +4961,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10372</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="J46" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4654,50 +5032,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10372</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>363</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="J47" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="K47" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4721,50 +5103,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10372</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="J48" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="K48" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4788,50 +5174,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10372</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>377</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4855,50 +5245,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10372</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>384</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="J50" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="K50" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4922,50 +5316,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>10372</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>325</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="J51" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="K51" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="O51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -4989,50 +5387,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>10372</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>398</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="J52" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5052,50 +5454,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>10372</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>406</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="J53" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="K53" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="O53" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5115,50 +5521,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>10372</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>413</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="J54" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="K54" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5172,50 +5582,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>10372</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>420</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="J55" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="K55" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="L55" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="O55" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5239,50 +5653,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>10372</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>427</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="J56" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="K56" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="L56" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5306,50 +5724,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>10372</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>434</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J57" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="K57" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="O57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5373,50 +5795,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>10372</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>442</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="J58" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5440,50 +5866,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>10372</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>449</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="J59" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="K59" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -5507,50 +5937,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>10372</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>457</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="J60" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="K60" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="L60" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5574,50 +6008,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>10372</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>464</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="J61" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="K61" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="O61" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -5641,50 +6079,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>10372</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>470</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="J62" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="K62" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5708,50 +6150,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>10372</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>477</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="J63" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="K63" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="L63" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="O63" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5775,50 +6221,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10372</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>484</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="J64" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="K64" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="L64" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5842,50 +6292,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>10372</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>491</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>430</v>
+        <v>492</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="J65" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="K65" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="L65" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="O65" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -5909,50 +6363,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>10372</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="J66" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="K66" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="L66" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="O66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -5976,50 +6434,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>10372</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>506</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="J67" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="K67" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="L67" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="O67" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6041,41 +6503,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>10372</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>514</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="J68" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="K68" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
@@ -6102,41 +6568,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>10372</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>520</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="J69" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="K69" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="L69" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
@@ -6163,7 +6633,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
